--- a/docs/DsRegistroVeriFactu.xlsx
+++ b/docs/DsRegistroVeriFactu.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C36B1-9F08-7D49-9C29-6558943846A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C196EA-B720-E44A-8AEC-1AF91FA29D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0)Control de cambios" sheetId="19" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="697">
   <si>
     <t>BLOQUE</t>
   </si>
@@ -3634,6 +3634,18 @@
   </si>
   <si>
     <t>Versión oficial a raíz de la publicación de la Orden Ministerial HAC-1177-2024. Sin cambios respecto a la versión 0.14.4. Asignación del mismo valor de numeración de versión, acorde al campo IdVersion (Lista L15).</t>
+  </si>
+  <si>
+    <t>Испанские юр. и физ. лица</t>
+  </si>
+  <si>
+    <t>Юр. лица вне ЕС, Канары, Сеута, Мелилья</t>
+  </si>
+  <si>
+    <t>Юр. лица из ЕС</t>
+  </si>
+  <si>
+    <t>Продажа бизнеса единым целым</t>
   </si>
 </sst>
 </file>
@@ -4686,6 +4698,45 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4695,51 +4746,12 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4782,6 +4794,27 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4791,45 +4824,54 @@
     <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4857,39 +4899,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4897,6 +4906,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5614,74 +5626,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="2:11" ht="16" thickBot="1">
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="213" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="216"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="215"/>
     </row>
     <row r="4" spans="2:11" ht="16" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="208" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="205" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="207"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
       <c r="H5" s="33" t="s">
         <v>242</v>
       </c>
@@ -5714,10 +5726,10 @@
       <c r="H6" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="202" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="202" t="s">
         <v>255</v>
       </c>
       <c r="K6" s="29"/>
@@ -5742,22 +5754,22 @@
         <v>278</v>
       </c>
       <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11" ht="16" thickBot="1">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="213" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="216"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="215"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:11" ht="92" thickBot="1">
@@ -5779,13 +5791,13 @@
       <c r="G9" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="202" t="s">
         <v>253</v>
       </c>
       <c r="I9" s="203" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="216" t="s">
         <v>252</v>
       </c>
       <c r="K9" s="29"/>
@@ -5809,9 +5821,9 @@
       <c r="G10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="204"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="203"/>
-      <c r="J10" s="213"/>
+      <c r="J10" s="216"/>
       <c r="K10" s="29"/>
     </row>
     <row r="12" spans="2:11">
@@ -5820,98 +5832,107 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="211" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B8:J8"/>
@@ -5926,15 +5947,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6095,7 +6107,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6296,8 +6308,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:B36"/>
+    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -6338,7 +6350,7 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="37" thickBot="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="146" t="s">
         <v>422</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -6357,7 +6369,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="157"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="135" t="s">
         <v>426</v>
       </c>
@@ -6376,8 +6388,8 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="104" t="s">
         <v>428</v>
       </c>
@@ -6393,7 +6405,7 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="157"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="136"/>
       <c r="C5" s="104" t="s">
         <v>430</v>
@@ -6410,7 +6422,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="49" thickBot="1">
-      <c r="A6" s="157"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="117" t="s">
         <v>685</v>
       </c>
@@ -6427,7 +6439,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="157"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="104" t="s">
         <v>432</v>
       </c>
@@ -6444,7 +6456,7 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="61" thickBot="1">
-      <c r="A8" s="157"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="117" t="s">
         <v>195</v>
       </c>
@@ -6461,7 +6473,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="73" thickBot="1">
-      <c r="A9" s="157"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="117" t="s">
         <v>183</v>
       </c>
@@ -6478,7 +6490,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="25" thickBot="1">
-      <c r="A10" s="157"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="104" t="s">
         <v>437</v>
       </c>
@@ -6495,7 +6507,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="13" thickBot="1">
-      <c r="A11" s="157"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="110" t="s">
         <v>2</v>
       </c>
@@ -6512,8 +6524,8 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="147" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="135" t="s">
@@ -6533,9 +6545,9 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="157"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="104" t="s">
         <v>428</v>
       </c>
@@ -6550,9 +6562,9 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="104" t="s">
         <v>430</v>
       </c>
@@ -6567,11 +6579,11 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="152" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="152" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="104" t="s">
@@ -6588,9 +6600,9 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="155"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="104" t="s">
         <v>428</v>
       </c>
@@ -6605,9 +6617,9 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="104" t="s">
         <v>430</v>
       </c>
@@ -6622,8 +6634,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="152" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="151" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -6641,8 +6653,8 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="104" t="s">
         <v>443</v>
       </c>
@@ -6658,8 +6670,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="13" thickBot="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="110" t="s">
         <v>6</v>
       </c>
@@ -6675,7 +6687,7 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13" thickBot="1">
-      <c r="A21" s="157"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="110" t="s">
         <v>7</v>
       </c>
@@ -6692,7 +6704,7 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1">
-      <c r="A22" s="157"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="104" t="s">
         <v>444</v>
       </c>
@@ -6709,7 +6721,7 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="25" thickBot="1">
-      <c r="A23" s="157"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="119" t="s">
         <v>207</v>
       </c>
@@ -6726,7 +6738,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="25" thickBot="1">
-      <c r="A24" s="157"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="119" t="s">
         <v>213</v>
       </c>
@@ -6751,7 +6763,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="157"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="110" t="s">
         <v>8</v>
       </c>
@@ -6768,7 +6780,7 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="25" thickBot="1">
-      <c r="A26" s="157"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="119" t="s">
         <v>202</v>
       </c>
@@ -6785,8 +6797,8 @@
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="149" t="s">
+      <c r="A27" s="146"/>
+      <c r="B27" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="104" t="s">
@@ -6804,8 +6816,8 @@
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="120" t="s">
         <v>417</v>
       </c>
@@ -6821,9 +6833,9 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="25" thickBot="1">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="146" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="159" t="s">
         <v>448</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -6840,9 +6852,9 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="104" t="s">
         <v>450</v>
       </c>
@@ -6857,9 +6869,9 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="104" t="s">
         <v>451</v>
       </c>
@@ -6874,8 +6886,8 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="25" thickBot="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="149" t="s">
+      <c r="A32" s="146"/>
+      <c r="B32" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="135" t="s">
@@ -6895,9 +6907,9 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="25" thickBot="1">
-      <c r="A33" s="157"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="157"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="120" t="s">
         <v>417</v>
       </c>
@@ -6912,10 +6924,10 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="25" thickBot="1">
-      <c r="A34" s="157"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="146" t="s">
+      <c r="A34" s="146"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="159" t="s">
         <v>448</v>
       </c>
       <c r="E34" s="110" t="s">
@@ -6931,10 +6943,10 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="25" thickBot="1">
-      <c r="A35" s="157"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="147"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="104" t="s">
         <v>450</v>
       </c>
@@ -6948,10 +6960,10 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="25" thickBot="1">
-      <c r="A36" s="157"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="136"/>
-      <c r="D36" s="148"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="104" t="s">
         <v>451</v>
       </c>
@@ -6965,7 +6977,7 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A37" s="157"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="117" t="s">
         <v>12</v>
       </c>
@@ -6982,7 +6994,7 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="37" thickBot="1">
-      <c r="A38" s="157"/>
+      <c r="A38" s="146"/>
       <c r="B38" s="135" t="s">
         <v>457</v>
       </c>
@@ -7003,9 +7015,9 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="25" thickBot="1">
-      <c r="A39" s="157"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="122" t="s">
         <v>656</v>
       </c>
@@ -7020,9 +7032,9 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="120" t="s">
         <v>459</v>
       </c>
@@ -7037,9 +7049,9 @@
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="120" t="s">
         <v>460</v>
       </c>
@@ -7054,9 +7066,9 @@
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="110" t="s">
         <v>13</v>
       </c>
@@ -7071,9 +7083,9 @@
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="104" t="s">
         <v>462</v>
       </c>
@@ -7088,9 +7100,9 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="25" thickBot="1">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="117" t="s">
         <v>14</v>
       </c>
@@ -7105,9 +7117,9 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="157"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
+      <c r="A45" s="146"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="110" t="s">
         <v>15</v>
       </c>
@@ -7122,9 +7134,9 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
       <c r="D46" s="110" t="s">
         <v>16</v>
       </c>
@@ -7139,7 +7151,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
-      <c r="A47" s="157"/>
+      <c r="A47" s="146"/>
       <c r="B47" s="136"/>
       <c r="C47" s="136"/>
       <c r="D47" s="110" t="s">
@@ -7156,7 +7168,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A48" s="157"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="104" t="s">
         <v>463</v>
       </c>
@@ -7173,7 +7185,7 @@
       <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="25" thickBot="1">
-      <c r="A49" s="157"/>
+      <c r="A49" s="146"/>
       <c r="B49" s="123" t="s">
         <v>465</v>
       </c>
@@ -7190,8 +7202,8 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="61" thickBot="1">
-      <c r="A50" s="157"/>
-      <c r="B50" s="154" t="s">
+      <c r="A50" s="146"/>
+      <c r="B50" s="163" t="s">
         <v>467</v>
       </c>
       <c r="C50" s="120" t="s">
@@ -7209,9 +7221,9 @@
       <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="73" thickBot="1">
-      <c r="A51" s="157"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="146" t="s">
+      <c r="A51" s="146"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="159" t="s">
         <v>470</v>
       </c>
       <c r="D51" s="104" t="s">
@@ -7228,9 +7240,9 @@
       <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="25" thickBot="1">
-      <c r="A52" s="157"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="147"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="160"/>
       <c r="D52" s="104" t="s">
         <v>428</v>
       </c>
@@ -7245,9 +7257,9 @@
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="25" thickBot="1">
-      <c r="A53" s="157"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="147"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="104" t="s">
         <v>430</v>
       </c>
@@ -7262,9 +7274,9 @@
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A54" s="157"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="153"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="162"/>
       <c r="D54" s="104" t="s">
         <v>472</v>
       </c>
@@ -7279,7 +7291,7 @@
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="25" thickBot="1">
-      <c r="A55" s="157"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="125" t="s">
         <v>474</v>
       </c>
@@ -7294,7 +7306,7 @@
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="73" thickBot="1">
-      <c r="A56" s="157"/>
+      <c r="A56" s="146"/>
       <c r="B56" s="103" t="s">
         <v>476</v>
       </c>
@@ -7311,7 +7323,7 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="49" thickBot="1">
-      <c r="A57" s="157"/>
+      <c r="A57" s="146"/>
       <c r="B57" s="119" t="s">
         <v>18</v>
       </c>
@@ -7328,7 +7340,7 @@
       <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A58" s="157"/>
+      <c r="A58" s="146"/>
       <c r="B58" s="124" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7357,7 @@
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="25" thickBot="1">
-      <c r="A59" s="157"/>
+      <c r="A59" s="146"/>
       <c r="B59" s="104" t="s">
         <v>482</v>
       </c>
@@ -7362,7 +7374,7 @@
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A60" s="157"/>
+      <c r="A60" s="146"/>
       <c r="B60" s="104" t="s">
         <v>472</v>
       </c>
@@ -7379,56 +7391,44 @@
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="157"/>
-      <c r="B61" s="149" t="s">
+      <c r="A61" s="146"/>
+      <c r="B61" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="149"/>
+      <c r="C61" s="147"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="G61" s="158" t="s">
+      <c r="G61" s="155" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="157"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
+      <c r="A62" s="146"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
       <c r="F62" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="G62" s="159"/>
+      <c r="G62" s="156"/>
     </row>
     <row r="63" spans="1:9" ht="25" thickBot="1">
       <c r="A63" s="136"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="151"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
       <c r="D63" s="136"/>
       <c r="E63" s="136"/>
       <c r="F63" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G63" s="160"/>
+      <c r="G63" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -7438,6 +7438,18 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C38:C47"/>
     <mergeCell ref="B38:B47"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7456,7 +7468,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7820,7 +7832,7 @@
       <c r="E24" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="158" t="s">
+      <c r="F24" s="155" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7832,7 +7844,7 @@
       <c r="E25" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F25" s="159"/>
+      <c r="F25" s="156"/>
     </row>
     <row r="26" spans="1:6" ht="25" thickBot="1">
       <c r="A26" s="166"/>
@@ -7842,7 +7854,7 @@
       <c r="E26" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="157"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -7911,17 +7923,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="185" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="181" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="183" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="47" t="s">
@@ -7929,19 +7941,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="179"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="182"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" thickBot="1">
-      <c r="A4" s="179"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="123" t="s">
         <v>500</v>
       </c>
@@ -7957,7 +7969,7 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1">
-      <c r="A5" s="179"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="123"/>
       <c r="C5" s="135" t="s">
         <v>414</v>
@@ -7975,7 +7987,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="A6" s="179"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="123"/>
       <c r="C6" s="136"/>
       <c r="D6" s="104" t="s">
@@ -7991,15 +8003,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="149" t="s">
+      <c r="A7" s="186"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="181" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="183" t="s">
         <v>501</v>
       </c>
       <c r="H7" s="47" t="s">
@@ -8007,21 +8019,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="182"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="179"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="123"/>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="147" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="104" t="s">
@@ -8037,9 +8049,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="179"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="123"/>
-      <c r="C10" s="150"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="120" t="s">
         <v>417</v>
       </c>
@@ -8053,10 +8065,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="179"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="123"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="148"/>
+      <c r="D11" s="159" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="110" t="s">
@@ -8071,15 +8083,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="135" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="181" t="s">
+      <c r="F12" s="147"/>
+      <c r="G12" s="183" t="s">
         <v>503</v>
       </c>
       <c r="H12" s="47" t="s">
@@ -8087,22 +8099,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="147"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="136"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="182"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="179"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="123"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="148"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="104" t="s">
         <v>451</v>
       </c>
@@ -8115,7 +8127,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37" thickBot="1">
-      <c r="A15" s="179"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="123"/>
       <c r="C15" s="104" t="s">
         <v>504</v>
@@ -8131,7 +8143,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="179"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="123"/>
       <c r="C16" s="123" t="s">
         <v>506</v>
@@ -8147,12 +8159,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" thickBot="1">
-      <c r="A17" s="179"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="127"/>
       <c r="C17" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="159" t="s">
         <v>507</v>
       </c>
       <c r="E17" s="104" t="s">
@@ -8167,10 +8179,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" thickBot="1">
-      <c r="A18" s="179"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="127"/>
       <c r="C18" s="118"/>
-      <c r="D18" s="147"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="110" t="s">
         <v>134</v>
       </c>
@@ -8183,10 +8195,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" thickBot="1">
-      <c r="A19" s="179"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="127"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="147"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="104" t="s">
         <v>512</v>
       </c>
@@ -8199,10 +8211,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" thickBot="1">
-      <c r="A20" s="179"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="127"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="147"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="110" t="s">
         <v>135</v>
       </c>
@@ -8215,10 +8227,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" thickBot="1">
-      <c r="A21" s="179"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="127"/>
       <c r="C21" s="118"/>
-      <c r="D21" s="147"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="104" t="s">
         <v>515</v>
       </c>
@@ -8231,10 +8243,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" thickBot="1">
-      <c r="A22" s="179"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="127"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="147"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="110" t="s">
         <v>136</v>
       </c>
@@ -8247,10 +8259,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A23" s="179"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="127"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="147"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="104" t="s">
         <v>518</v>
       </c>
@@ -8263,10 +8275,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" thickBot="1">
-      <c r="A24" s="179"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="127"/>
       <c r="C24" s="118"/>
-      <c r="D24" s="153"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="110" t="s">
         <v>137</v>
       </c>
@@ -8279,10 +8291,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="179"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="127"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="184" t="s">
+      <c r="D25" s="179" t="s">
         <v>521</v>
       </c>
       <c r="E25" s="104" t="s">
@@ -8297,10 +8309,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1">
-      <c r="A26" s="179"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="127"/>
       <c r="C26" s="118"/>
-      <c r="D26" s="147"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="110" t="s">
         <v>138</v>
       </c>
@@ -8313,11 +8325,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" thickBot="1">
-      <c r="A27" s="179"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="127"/>
       <c r="C27" s="118"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="149" t="s">
+      <c r="D27" s="160"/>
+      <c r="E27" s="147" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="104" t="s">
@@ -8331,11 +8343,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="179"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="127"/>
       <c r="C28" s="118"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="150"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="104" t="s">
         <v>428</v>
       </c>
@@ -8347,11 +8359,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" thickBot="1">
-      <c r="A29" s="179"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="127"/>
       <c r="C29" s="118"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="151"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="104" t="s">
         <v>430</v>
       </c>
@@ -8363,10 +8375,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" thickBot="1">
-      <c r="A30" s="179"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="127"/>
       <c r="C30" s="118"/>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="159" t="s">
         <v>528</v>
       </c>
       <c r="E30" s="104" t="s">
@@ -8381,10 +8393,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" thickBot="1">
-      <c r="A31" s="179"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="127"/>
       <c r="C31" s="118"/>
-      <c r="D31" s="147"/>
+      <c r="D31" s="160"/>
       <c r="E31" s="110" t="s">
         <v>397</v>
       </c>
@@ -8397,10 +8409,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" thickBot="1">
-      <c r="A32" s="179"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="127"/>
       <c r="C32" s="118"/>
-      <c r="D32" s="147"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="104" t="s">
         <v>533</v>
       </c>
@@ -8413,10 +8425,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="25" thickBot="1">
-      <c r="A33" s="179"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="127"/>
       <c r="C33" s="118"/>
-      <c r="D33" s="147"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="110" t="s">
         <v>398</v>
       </c>
@@ -8429,10 +8441,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="25" thickBot="1">
-      <c r="A34" s="179"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="127"/>
       <c r="C34" s="118"/>
-      <c r="D34" s="147"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="104" t="s">
         <v>536</v>
       </c>
@@ -8445,10 +8457,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" thickBot="1">
-      <c r="A35" s="179"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="127"/>
       <c r="C35" s="118"/>
-      <c r="D35" s="147"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="110" t="s">
         <v>399</v>
       </c>
@@ -8461,10 +8473,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25" thickBot="1">
-      <c r="A36" s="179"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="127"/>
       <c r="C36" s="118"/>
-      <c r="D36" s="147"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="104" t="s">
         <v>539</v>
       </c>
@@ -8477,10 +8489,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="25" thickBot="1">
-      <c r="A37" s="179"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="127"/>
       <c r="C37" s="118"/>
-      <c r="D37" s="148"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="110" t="s">
         <v>400</v>
       </c>
@@ -8493,10 +8505,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="179"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="127"/>
       <c r="C38" s="118"/>
-      <c r="D38" s="146" t="s">
+      <c r="D38" s="159" t="s">
         <v>542</v>
       </c>
       <c r="E38" s="104" t="s">
@@ -8511,10 +8523,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="25" thickBot="1">
-      <c r="A39" s="179"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="127"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="147"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="110" t="s">
         <v>138</v>
       </c>
@@ -8527,11 +8539,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="179"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="127"/>
       <c r="C40" s="118"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="185" t="s">
+      <c r="D40" s="160"/>
+      <c r="E40" s="180" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="104" t="s">
@@ -8545,11 +8557,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="37" thickBot="1">
-      <c r="A41" s="179"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="127"/>
       <c r="C41" s="118"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="186"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="181"/>
       <c r="F41" s="104" t="s">
         <v>543</v>
       </c>
@@ -8561,11 +8573,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="179"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="127"/>
       <c r="C42" s="118"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="187"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="182"/>
       <c r="F42" s="104" t="s">
         <v>545</v>
       </c>
@@ -8577,10 +8589,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="37" thickBot="1">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="127"/>
       <c r="C43" s="118"/>
-      <c r="D43" s="146" t="s">
+      <c r="D43" s="159" t="s">
         <v>546</v>
       </c>
       <c r="E43" s="104" t="s">
@@ -8595,10 +8607,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="37" thickBot="1">
-      <c r="A44" s="179"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="127"/>
       <c r="C44" s="118"/>
-      <c r="D44" s="147"/>
+      <c r="D44" s="160"/>
       <c r="E44" s="104" t="s">
         <v>549</v>
       </c>
@@ -8611,10 +8623,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="25" thickBot="1">
-      <c r="A45" s="179"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="127"/>
       <c r="C45" s="118"/>
-      <c r="D45" s="147"/>
+      <c r="D45" s="160"/>
       <c r="E45" s="135" t="s">
         <v>551</v>
       </c>
@@ -8629,11 +8641,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" thickBot="1">
-      <c r="A46" s="179"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="127"/>
       <c r="C46" s="118"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="157"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="104" t="s">
         <v>428</v>
       </c>
@@ -8645,11 +8657,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="25" thickBot="1">
-      <c r="A47" s="179"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="127"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="157"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="146"/>
       <c r="F47" s="104" t="s">
         <v>430</v>
       </c>
@@ -8661,10 +8673,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" thickBot="1">
-      <c r="A48" s="179"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="127"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="147"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="136"/>
       <c r="F48" s="104" t="s">
         <v>472</v>
@@ -8677,10 +8689,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" thickBot="1">
-      <c r="A49" s="179"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="127"/>
       <c r="C49" s="118"/>
-      <c r="D49" s="147"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="135" t="s">
         <v>556</v>
       </c>
@@ -8695,11 +8707,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="25" thickBot="1">
-      <c r="A50" s="179"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="127"/>
       <c r="C50" s="118"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="157"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="146"/>
       <c r="F50" s="104" t="s">
         <v>428</v>
       </c>
@@ -8711,11 +8723,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="25" thickBot="1">
-      <c r="A51" s="179"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="127"/>
       <c r="C51" s="118"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="157"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="146"/>
       <c r="F51" s="104" t="s">
         <v>430</v>
       </c>
@@ -8727,10 +8739,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1">
-      <c r="A52" s="179"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="127"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="147"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="136"/>
       <c r="F52" s="104" t="s">
         <v>472</v>
@@ -8743,10 +8755,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="179"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="127"/>
       <c r="C53" s="118"/>
-      <c r="D53" s="147"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="104" t="s">
         <v>561</v>
       </c>
@@ -8759,10 +8771,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" thickBot="1">
-      <c r="A54" s="179"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="127"/>
       <c r="C54" s="118"/>
-      <c r="D54" s="147"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="104" t="s">
         <v>563</v>
       </c>
@@ -8775,10 +8787,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="25" thickBot="1">
-      <c r="A55" s="179"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="127"/>
       <c r="C55" s="118"/>
-      <c r="D55" s="147"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="104" t="s">
         <v>565</v>
       </c>
@@ -8791,10 +8803,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" thickBot="1">
-      <c r="A56" s="179"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="127"/>
       <c r="C56" s="118"/>
-      <c r="D56" s="147"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="104" t="s">
         <v>567</v>
       </c>
@@ -8807,10 +8819,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" thickBot="1">
-      <c r="A57" s="179"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="127"/>
       <c r="C57" s="118"/>
-      <c r="D57" s="148"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="104" t="s">
         <v>568</v>
       </c>
@@ -8823,10 +8835,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="37" thickBot="1">
-      <c r="A58" s="179"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="127"/>
       <c r="C58" s="118"/>
-      <c r="D58" s="146" t="s">
+      <c r="D58" s="159" t="s">
         <v>401</v>
       </c>
       <c r="E58" s="104" t="s">
@@ -8841,10 +8853,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="37" thickBot="1">
-      <c r="A59" s="179"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="127"/>
       <c r="C59" s="118"/>
-      <c r="D59" s="147"/>
+      <c r="D59" s="160"/>
       <c r="E59" s="123" t="s">
         <v>549</v>
       </c>
@@ -8857,10 +8869,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1">
-      <c r="A60" s="179"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="127"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="147"/>
+      <c r="D60" s="160"/>
       <c r="E60" s="115" t="s">
         <v>572</v>
       </c>
@@ -8875,10 +8887,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="37" thickBot="1">
-      <c r="A61" s="179"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="127"/>
       <c r="C61" s="118"/>
-      <c r="D61" s="147"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="116"/>
       <c r="F61" s="104" t="s">
         <v>543</v>
@@ -8891,10 +8903,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" thickBot="1">
-      <c r="A62" s="179"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="127"/>
       <c r="C62" s="118"/>
-      <c r="D62" s="147"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="111"/>
       <c r="F62" s="104" t="s">
         <v>545</v>
@@ -8907,10 +8919,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" thickBot="1">
-      <c r="A63" s="179"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="127"/>
       <c r="C63" s="118"/>
-      <c r="D63" s="147"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="116" t="s">
         <v>576</v>
       </c>
@@ -8925,10 +8937,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="37" thickBot="1">
-      <c r="A64" s="179"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="127"/>
       <c r="C64" s="118"/>
-      <c r="D64" s="147"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="116"/>
       <c r="F64" s="104" t="s">
         <v>543</v>
@@ -8941,10 +8953,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" thickBot="1">
-      <c r="A65" s="179"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="127"/>
       <c r="C65" s="118"/>
-      <c r="D65" s="147"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="111"/>
       <c r="F65" s="104" t="s">
         <v>545</v>
@@ -8957,10 +8969,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" thickBot="1">
-      <c r="A66" s="179"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="127"/>
       <c r="C66" s="118"/>
-      <c r="D66" s="147"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="104" t="s">
         <v>579</v>
       </c>
@@ -8973,10 +8985,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" thickBot="1">
-      <c r="A67" s="179"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="127"/>
       <c r="C67" s="118"/>
-      <c r="D67" s="148"/>
+      <c r="D67" s="161"/>
       <c r="E67" s="104" t="s">
         <v>581</v>
       </c>
@@ -8989,10 +9001,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" thickBot="1">
-      <c r="A68" s="179"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="127"/>
       <c r="C68" s="118"/>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="159" t="s">
         <v>583</v>
       </c>
       <c r="E68" s="135" t="s">
@@ -9009,10 +9021,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="37" thickBot="1">
-      <c r="A69" s="179"/>
+      <c r="A69" s="186"/>
       <c r="B69" s="127"/>
       <c r="C69" s="118"/>
-      <c r="D69" s="147"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="136"/>
       <c r="F69" s="104" t="s">
         <v>586</v>
@@ -9025,11 +9037,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="37" thickBot="1">
-      <c r="A70" s="179"/>
+      <c r="A70" s="186"/>
       <c r="B70" s="127"/>
       <c r="C70" s="118"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="149" t="s">
+      <c r="D70" s="160"/>
+      <c r="E70" s="147" t="s">
         <v>141</v>
       </c>
       <c r="F70" s="104" t="s">
@@ -9043,11 +9055,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="37" thickBot="1">
-      <c r="A71" s="179"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="127"/>
       <c r="C71" s="118"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="150"/>
+      <c r="D71" s="160"/>
+      <c r="E71" s="148"/>
       <c r="F71" s="104" t="s">
         <v>428</v>
       </c>
@@ -9059,11 +9071,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" thickBot="1">
-      <c r="A72" s="179"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="127"/>
       <c r="C72" s="118"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="150"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="104" t="s">
         <v>430</v>
       </c>
@@ -9075,11 +9087,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" thickBot="1">
-      <c r="A73" s="179"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="127"/>
       <c r="C73" s="118"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="151"/>
+      <c r="D73" s="160"/>
+      <c r="E73" s="158"/>
       <c r="F73" s="104" t="s">
         <v>472</v>
       </c>
@@ -9091,11 +9103,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="37" thickBot="1">
-      <c r="A74" s="179"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="127"/>
       <c r="C74" s="118"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="149" t="s">
+      <c r="D74" s="160"/>
+      <c r="E74" s="147" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="104" t="s">
@@ -9109,11 +9121,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="37" thickBot="1">
-      <c r="A75" s="179"/>
+      <c r="A75" s="186"/>
       <c r="B75" s="127"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="150"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="148"/>
       <c r="F75" s="104" t="s">
         <v>428</v>
       </c>
@@ -9125,11 +9137,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="25" thickBot="1">
-      <c r="A76" s="179"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="127"/>
       <c r="C76" s="118"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="150"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="148"/>
       <c r="F76" s="104" t="s">
         <v>430</v>
       </c>
@@ -9141,11 +9153,11 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" thickBot="1">
-      <c r="A77" s="179"/>
+      <c r="A77" s="186"/>
       <c r="B77" s="127"/>
       <c r="C77" s="118"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="151"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="158"/>
       <c r="F77" s="104" t="s">
         <v>472</v>
       </c>
@@ -9157,10 +9169,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37" thickBot="1">
-      <c r="A78" s="179"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="127"/>
       <c r="C78" s="118"/>
-      <c r="D78" s="147"/>
+      <c r="D78" s="160"/>
       <c r="E78" s="104" t="s">
         <v>593</v>
       </c>
@@ -9173,10 +9185,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="37" thickBot="1">
-      <c r="A79" s="179"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="127"/>
       <c r="C79" s="118"/>
-      <c r="D79" s="147"/>
+      <c r="D79" s="160"/>
       <c r="E79" s="104" t="s">
         <v>563</v>
       </c>
@@ -9189,10 +9201,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="37" thickBot="1">
-      <c r="A80" s="179"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="127"/>
       <c r="C80" s="118"/>
-      <c r="D80" s="147"/>
+      <c r="D80" s="160"/>
       <c r="E80" s="104" t="s">
         <v>565</v>
       </c>
@@ -9205,10 +9217,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="37" thickBot="1">
-      <c r="A81" s="179"/>
+      <c r="A81" s="186"/>
       <c r="B81" s="127"/>
       <c r="C81" s="118"/>
-      <c r="D81" s="148"/>
+      <c r="D81" s="161"/>
       <c r="E81" s="104" t="s">
         <v>598</v>
       </c>
@@ -9221,7 +9233,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" thickBot="1">
-      <c r="A82" s="179"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="123"/>
       <c r="C82" s="128" t="s">
         <v>143</v>
@@ -9237,9 +9249,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="61" thickBot="1">
-      <c r="A83" s="179"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="123"/>
-      <c r="C83" s="154" t="s">
+      <c r="C83" s="163" t="s">
         <v>467</v>
       </c>
       <c r="D83" s="120" t="s">
@@ -9255,10 +9267,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" thickBot="1">
-      <c r="A84" s="179"/>
+      <c r="A84" s="186"/>
       <c r="B84" s="123"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="146" t="s">
+      <c r="C84" s="153"/>
+      <c r="D84" s="159" t="s">
         <v>603</v>
       </c>
       <c r="E84" s="104" t="s">
@@ -9273,10 +9285,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="37" thickBot="1">
-      <c r="A85" s="179"/>
+      <c r="A85" s="186"/>
       <c r="B85" s="123"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="147"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="160"/>
       <c r="E85" s="104" t="s">
         <v>504</v>
       </c>
@@ -9289,10 +9301,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A86" s="179"/>
+      <c r="A86" s="186"/>
       <c r="B86" s="123"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="148"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="161"/>
       <c r="E86" s="104" t="s">
         <v>545</v>
       </c>
@@ -9305,7 +9317,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="25" thickBot="1">
-      <c r="A87" s="179"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="123"/>
       <c r="C87" s="103" t="s">
         <v>482</v>
@@ -9321,7 +9333,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A88" s="179"/>
+      <c r="A88" s="186"/>
       <c r="B88" s="123"/>
       <c r="C88" s="104" t="s">
         <v>545</v>
@@ -9337,35 +9349,63 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="179"/>
-      <c r="B89" s="157"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="146"/>
       <c r="C89" s="135" t="s">
         <v>608</v>
       </c>
-      <c r="D89" s="149"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="135"/>
-      <c r="F89" s="149"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="H89" s="158" t="s">
+      <c r="H89" s="155" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" thickBot="1">
-      <c r="A90" s="180"/>
+      <c r="A90" s="187"/>
       <c r="B90" s="136"/>
       <c r="C90" s="136"/>
-      <c r="D90" s="151"/>
+      <c r="D90" s="158"/>
       <c r="E90" s="136"/>
-      <c r="F90" s="151"/>
+      <c r="F90" s="158"/>
       <c r="G90" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="H90" s="160"/>
+      <c r="H90" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A2:A90"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D57"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="D68:D81"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="E74:E77"/>
     <mergeCell ref="C83:C86"/>
     <mergeCell ref="D84:D86"/>
@@ -9380,34 +9420,6 @@
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A90"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D57"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="D68:D81"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9418,8 +9430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9449,7 +9461,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="163" t="s">
         <v>474</v>
       </c>
       <c r="B2" s="105" t="s">
@@ -9464,7 +9476,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="155"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="120" t="s">
         <v>417</v>
       </c>
@@ -9477,8 +9489,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="153"/>
+      <c r="B4" s="159" t="s">
         <v>448</v>
       </c>
       <c r="C4" s="119" t="s">
@@ -9492,8 +9504,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" thickBot="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="106" t="s">
         <v>450</v>
       </c>
@@ -9505,8 +9517,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" thickBot="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="148"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="106" t="s">
         <v>451</v>
       </c>
@@ -9518,7 +9530,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="37" thickBot="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="124" t="s">
         <v>212</v>
       </c>
@@ -9531,7 +9543,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="49" thickBot="1">
-      <c r="A8" s="155"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="106" t="s">
         <v>614</v>
       </c>
@@ -9544,7 +9556,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" thickBot="1">
-      <c r="A9" s="155"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="106" t="s">
         <v>616</v>
       </c>
@@ -9557,7 +9569,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A10" s="155"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="106" t="s">
         <v>618</v>
       </c>
@@ -9570,7 +9582,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="37" thickBot="1">
-      <c r="A11" s="155"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="124" t="s">
         <v>211</v>
       </c>
@@ -9583,7 +9595,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="37" thickBot="1">
-      <c r="A12" s="155"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="124" t="s">
         <v>210</v>
       </c>
@@ -9596,7 +9608,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="97" thickBot="1">
-      <c r="A13" s="156"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="117" t="s">
         <v>321</v>
       </c>
@@ -9633,8 +9645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
@@ -9650,10 +9662,10 @@
     <row r="1" spans="1:3" ht="15" thickBot="1"/>
     <row r="2" spans="1:3" ht="16" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="189" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="192"/>
+      <c r="C2" s="190"/>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1">
       <c r="A3"/>
@@ -9712,10 +9724,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="190"/>
+      <c r="C10" s="192"/>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11"/>
@@ -9817,10 +9829,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
       <c r="A23"/>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="190"/>
+      <c r="C23" s="192"/>
     </row>
     <row r="24" spans="1:3" ht="16" thickBot="1">
       <c r="A24"/>
@@ -9861,10 +9873,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" thickBot="1">
       <c r="A29"/>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="190"/>
+      <c r="C29" s="192"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
       <c r="A30"/>
@@ -9905,10 +9917,10 @@
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1">
       <c r="A35"/>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="190"/>
+      <c r="C35" s="192"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
       <c r="A36"/>
@@ -9949,10 +9961,10 @@
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1">
       <c r="A41"/>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="192"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1">
       <c r="A42"/>
@@ -9993,10 +10005,10 @@
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1">
       <c r="A47"/>
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="190"/>
+      <c r="C47" s="192"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1">
       <c r="A48"/>
@@ -10073,10 +10085,10 @@
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57"/>
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="191" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="190"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="85"/>
       <c r="E57" s="86"/>
     </row>
@@ -10254,10 +10266,10 @@
     </row>
     <row r="78" spans="1:3" ht="16" thickBot="1">
       <c r="A78"/>
-      <c r="B78" s="189" t="s">
+      <c r="B78" s="191" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="190"/>
+      <c r="C78" s="192"/>
     </row>
     <row r="79" spans="1:3" ht="16" thickBot="1">
       <c r="A79"/>
@@ -10417,24 +10429,24 @@
         <v>652</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16" thickBot="1">
+    <row r="97" spans="1:4" ht="16" thickBot="1">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
     </row>
-    <row r="98" spans="1:3" ht="16" thickBot="1">
+    <row r="98" spans="1:4" ht="16" thickBot="1">
       <c r="A98"/>
-      <c r="B98" s="189" t="s">
+      <c r="B98" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="190"/>
-    </row>
-    <row r="99" spans="1:3" ht="16" thickBot="1">
+      <c r="C98" s="192"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" thickBot="1">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
     </row>
-    <row r="100" spans="1:3" ht="16" thickBot="1">
+    <row r="100" spans="1:4" ht="16" thickBot="1">
       <c r="A100"/>
       <c r="B100" s="56" t="s">
         <v>25</v>
@@ -10443,7 +10455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16" thickBot="1">
+    <row r="101" spans="1:4" ht="16" thickBot="1">
       <c r="A101"/>
       <c r="B101" s="68" t="s">
         <v>24</v>
@@ -10451,8 +10463,11 @@
       <c r="C101" s="69" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="16" thickBot="1">
+      <c r="D101" s="15" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16" thickBot="1">
       <c r="A102"/>
       <c r="B102" s="68" t="s">
         <v>52</v>
@@ -10460,8 +10475,11 @@
       <c r="C102" s="69" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="16" thickBot="1">
+      <c r="D102" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" thickBot="1">
       <c r="A103"/>
       <c r="B103" s="68" t="s">
         <v>50</v>
@@ -10469,8 +10487,11 @@
       <c r="C103" s="69" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="16" thickBot="1">
+      <c r="D103" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16" thickBot="1">
       <c r="A104" s="76"/>
       <c r="B104" s="68" t="s">
         <v>48</v>
@@ -10478,25 +10499,28 @@
       <c r="C104" s="69" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="16" thickBot="1">
+      <c r="D104" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16" thickBot="1">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
     </row>
-    <row r="106" spans="1:3" ht="16" thickBot="1">
+    <row r="106" spans="1:4" ht="16" thickBot="1">
       <c r="A106"/>
-      <c r="B106" s="189" t="s">
+      <c r="B106" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="190"/>
-    </row>
-    <row r="107" spans="1:3" ht="16" thickBot="1">
+      <c r="C106" s="192"/>
+    </row>
+    <row r="107" spans="1:4" ht="16" thickBot="1">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
     </row>
-    <row r="108" spans="1:3" ht="16" thickBot="1">
+    <row r="108" spans="1:4" ht="16" thickBot="1">
       <c r="A108"/>
       <c r="B108" s="56" t="s">
         <v>25</v>
@@ -10505,7 +10529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16" thickBot="1">
+    <row r="109" spans="1:4" ht="16" thickBot="1">
       <c r="A109"/>
       <c r="B109" s="63" t="s">
         <v>45</v>
@@ -10514,7 +10538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16" thickBot="1">
+    <row r="110" spans="1:4" ht="16" thickBot="1">
       <c r="A110"/>
       <c r="B110" s="63" t="s">
         <v>43</v>
@@ -10523,7 +10547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16" thickBot="1">
+    <row r="111" spans="1:4" ht="16" thickBot="1">
       <c r="A111"/>
       <c r="B111" s="63" t="s">
         <v>41</v>
@@ -10532,7 +10556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16" thickBot="1">
+    <row r="112" spans="1:4" ht="16" thickBot="1">
       <c r="A112"/>
       <c r="B112" s="63" t="s">
         <v>39</v>
@@ -10566,10 +10590,10 @@
     </row>
     <row r="116" spans="1:3" ht="16" thickBot="1">
       <c r="A116"/>
-      <c r="B116" s="189" t="s">
+      <c r="B116" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="190"/>
+      <c r="C116" s="192"/>
     </row>
     <row r="117" spans="1:3" ht="16" thickBot="1">
       <c r="A117"/>
@@ -10601,10 +10625,10 @@
     </row>
     <row r="121" spans="1:3" ht="16" thickBot="1">
       <c r="A121"/>
-      <c r="B121" s="189" t="s">
+      <c r="B121" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="190"/>
+      <c r="C121" s="192"/>
     </row>
     <row r="122" spans="1:3" ht="16" thickBot="1">
       <c r="A122"/>
@@ -10645,10 +10669,10 @@
     </row>
     <row r="127" spans="1:3" ht="16" thickBot="1">
       <c r="A127"/>
-      <c r="B127" s="189" t="s">
+      <c r="B127" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="190"/>
+      <c r="C127" s="192"/>
     </row>
     <row r="128" spans="1:3" ht="16" thickBot="1">
       <c r="A128"/>
@@ -10678,10 +10702,10 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1">
-      <c r="B132" s="189" t="s">
+      <c r="B132" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="190"/>
+      <c r="C132" s="192"/>
     </row>
     <row r="133" spans="1:3" ht="16" thickBot="1">
       <c r="B133"/>
@@ -10724,10 +10748,10 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1">
-      <c r="B139" s="189" t="s">
+      <c r="B139" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="190"/>
+      <c r="C139" s="192"/>
     </row>
     <row r="140" spans="1:3" ht="16" thickBot="1">
       <c r="B140"/>
@@ -10770,10 +10794,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:3" ht="15" thickBot="1">
-      <c r="B146" s="189" t="s">
+      <c r="B146" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="190"/>
+      <c r="C146" s="192"/>
     </row>
     <row r="147" spans="2:3" ht="16" thickBot="1">
       <c r="B147"/>
@@ -10920,10 +10944,10 @@
       <c r="C165" s="76"/>
     </row>
     <row r="166" spans="2:3" ht="15" thickBot="1">
-      <c r="B166" s="189" t="s">
+      <c r="B166" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="190"/>
+      <c r="C166" s="192"/>
     </row>
     <row r="167" spans="2:3" ht="16" thickBot="1">
       <c r="B167"/>
@@ -11030,10 +11054,10 @@
       <c r="C180" s="79"/>
     </row>
     <row r="181" spans="2:3" ht="15" thickBot="1">
-      <c r="B181" s="189" t="s">
+      <c r="B181" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="190"/>
+      <c r="C181" s="192"/>
     </row>
     <row r="182" spans="2:3" ht="15" thickBot="1">
       <c r="B182" s="70"/>
@@ -11068,10 +11092,10 @@
       <c r="C186"/>
     </row>
     <row r="187" spans="2:3" ht="15" thickBot="1">
-      <c r="B187" s="189" t="s">
+      <c r="B187" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="C187" s="190"/>
+      <c r="C187" s="192"/>
     </row>
     <row r="188" spans="2:3" ht="16" thickBot="1">
       <c r="B188"/>
@@ -11103,6 +11127,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B10:C10"/>
@@ -11117,13 +11148,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B181:C181"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -11210,62 +11234,62 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="34"/>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="194" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="208" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="198" t="s">
+      <c r="F3" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="205" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" thickBot="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
       <c r="H4" s="33" t="s">
         <v>242</v>
       </c>
@@ -11277,17 +11301,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:11" ht="53" thickBot="1">
       <c r="B6" s="32" t="s">
@@ -11308,7 +11332,7 @@
       <c r="G6" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="202" t="s">
         <v>223</v>
       </c>
       <c r="I6" s="203" t="s">
@@ -11338,23 +11362,23 @@
       <c r="G7" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="204"/>
+      <c r="H7" s="202"/>
       <c r="I7" s="203"/>
       <c r="J7" s="203"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="66" thickBot="1">
@@ -11379,10 +11403,10 @@
       <c r="H9" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="I9" s="202" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="204" t="s">
+      <c r="J9" s="202" t="s">
         <v>229</v>
       </c>
       <c r="K9" s="29"/>
@@ -11407,22 +11431,22 @@
         <v>266</v>
       </c>
       <c r="H10" s="203"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="131" thickBot="1">
@@ -11444,7 +11468,7 @@
       <c r="G12" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="204" t="s">
+      <c r="H12" s="202" t="s">
         <v>223</v>
       </c>
       <c r="I12" s="203" t="s">
@@ -11474,7 +11498,7 @@
       <c r="G13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="204"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="203"/>
       <c r="J13" s="203"/>
       <c r="K13" s="29"/>
@@ -11485,109 +11509,98 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="211" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="204" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="210" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="204" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="H3:J3"/>
@@ -11604,6 +11617,17 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/DsRegistroVeriFactu.xlsx
+++ b/docs/DsRegistroVeriFactu.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C196EA-B720-E44A-8AEC-1AF91FA29D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E181320-E8B6-0A4A-89C6-403041D14AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="500" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0)Control de cambios" sheetId="19" r:id="rId1"/>
@@ -32,17 +32,28 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'3)D. Reg. Facturación Anulación'!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5)Definición SistemaInformatico'!$A$1:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="698">
   <si>
     <t>BLOQUE</t>
   </si>
@@ -3646,6 +3657,9 @@
   </si>
   <si>
     <t>Продажа бизнеса единым целым</t>
+  </si>
+  <si>
+    <t>Освобождение от НДС (обучение и т.п.)</t>
   </si>
 </sst>
 </file>
@@ -4698,14 +4712,50 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4713,45 +4763,9 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4794,6 +4808,21 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4809,39 +4838,57 @@
     <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4866,38 +4913,8 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4906,9 +4923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5626,74 +5640,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="2:11" ht="16" thickBot="1">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="214" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="216"/>
     </row>
     <row r="4" spans="2:11" ht="16" thickBot="1">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="198" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="198" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="198" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="208" t="s">
+      <c r="G4" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="205" t="s">
+      <c r="H4" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="207"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="33" t="s">
         <v>242</v>
       </c>
@@ -5726,10 +5740,10 @@
       <c r="H6" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="202" t="s">
+      <c r="I6" s="204" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="202" t="s">
+      <c r="J6" s="204" t="s">
         <v>255</v>
       </c>
       <c r="K6" s="29"/>
@@ -5754,22 +5768,22 @@
         <v>278</v>
       </c>
       <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11" ht="16" thickBot="1">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="214" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="216"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:11" ht="92" thickBot="1">
@@ -5791,13 +5805,13 @@
       <c r="G9" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="202" t="s">
+      <c r="H9" s="204" t="s">
         <v>253</v>
       </c>
       <c r="I9" s="203" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="216" t="s">
+      <c r="J9" s="213" t="s">
         <v>252</v>
       </c>
       <c r="K9" s="29"/>
@@ -5821,9 +5835,9 @@
       <c r="G10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="202"/>
+      <c r="H10" s="204"/>
       <c r="I10" s="203"/>
-      <c r="J10" s="216"/>
+      <c r="J10" s="213"/>
       <c r="K10" s="29"/>
     </row>
     <row r="12" spans="2:11">
@@ -5832,107 +5846,98 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="201" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="200" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="194" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="194" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B8:J8"/>
@@ -5947,6 +5952,15 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6107,7 +6121,7 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6308,8 +6322,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -6350,7 +6364,7 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="37" thickBot="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="157" t="s">
         <v>422</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -6369,7 +6383,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="146"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="135" t="s">
         <v>426</v>
       </c>
@@ -6388,8 +6402,8 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="104" t="s">
         <v>428</v>
       </c>
@@ -6405,7 +6419,7 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="146"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="136"/>
       <c r="C5" s="104" t="s">
         <v>430</v>
@@ -6422,7 +6436,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="49" thickBot="1">
-      <c r="A6" s="146"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="117" t="s">
         <v>685</v>
       </c>
@@ -6439,7 +6453,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="104" t="s">
         <v>432</v>
       </c>
@@ -6456,7 +6470,7 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="61" thickBot="1">
-      <c r="A8" s="146"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="117" t="s">
         <v>195</v>
       </c>
@@ -6473,7 +6487,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="73" thickBot="1">
-      <c r="A9" s="146"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="117" t="s">
         <v>183</v>
       </c>
@@ -6490,7 +6504,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="25" thickBot="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="104" t="s">
         <v>437</v>
       </c>
@@ -6507,7 +6521,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="13" thickBot="1">
-      <c r="A11" s="146"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="110" t="s">
         <v>2</v>
       </c>
@@ -6524,8 +6538,8 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="149" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="135" t="s">
@@ -6545,9 +6559,9 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="146"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="104" t="s">
         <v>428</v>
       </c>
@@ -6562,9 +6576,9 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="104" t="s">
         <v>430</v>
       </c>
@@ -6579,11 +6593,11 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="151" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="163" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="104" t="s">
@@ -6600,9 +6614,9 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="153"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="104" t="s">
         <v>428</v>
       </c>
@@ -6617,9 +6631,9 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="154"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="104" t="s">
         <v>430</v>
       </c>
@@ -6634,8 +6648,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="151" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -6653,8 +6667,8 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="148"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="104" t="s">
         <v>443</v>
       </c>
@@ -6670,8 +6684,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="13" thickBot="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="158"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="110" t="s">
         <v>6</v>
       </c>
@@ -6687,7 +6701,7 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13" thickBot="1">
-      <c r="A21" s="146"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="110" t="s">
         <v>7</v>
       </c>
@@ -6704,7 +6718,7 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1">
-      <c r="A22" s="146"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="104" t="s">
         <v>444</v>
       </c>
@@ -6721,7 +6735,7 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="25" thickBot="1">
-      <c r="A23" s="146"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="119" t="s">
         <v>207</v>
       </c>
@@ -6738,7 +6752,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="25" thickBot="1">
-      <c r="A24" s="146"/>
+      <c r="A24" s="157"/>
       <c r="B24" s="119" t="s">
         <v>213</v>
       </c>
@@ -6763,7 +6777,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="146"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="110" t="s">
         <v>8</v>
       </c>
@@ -6780,7 +6794,7 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="25" thickBot="1">
-      <c r="A26" s="146"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="119" t="s">
         <v>202</v>
       </c>
@@ -6797,8 +6811,8 @@
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="147" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="149" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="104" t="s">
@@ -6816,8 +6830,8 @@
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="148"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="120" t="s">
         <v>417</v>
       </c>
@@ -6833,9 +6847,9 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="25" thickBot="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="159" t="s">
+      <c r="A29" s="157"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="146" t="s">
         <v>448</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -6852,9 +6866,9 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="160"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="104" t="s">
         <v>450</v>
       </c>
@@ -6869,9 +6883,9 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="161"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="104" t="s">
         <v>451</v>
       </c>
@@ -6886,8 +6900,8 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="25" thickBot="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="147" t="s">
+      <c r="A32" s="157"/>
+      <c r="B32" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="135" t="s">
@@ -6907,9 +6921,9 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="25" thickBot="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="146"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="120" t="s">
         <v>417</v>
       </c>
@@ -6924,10 +6938,10 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="25" thickBot="1">
-      <c r="A34" s="146"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="159" t="s">
+      <c r="A34" s="157"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="146" t="s">
         <v>448</v>
       </c>
       <c r="E34" s="110" t="s">
@@ -6943,10 +6957,10 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="25" thickBot="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="160"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="104" t="s">
         <v>450</v>
       </c>
@@ -6960,10 +6974,10 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="25" thickBot="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="136"/>
-      <c r="D36" s="161"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="104" t="s">
         <v>451</v>
       </c>
@@ -6977,7 +6991,7 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A37" s="146"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="117" t="s">
         <v>12</v>
       </c>
@@ -6994,7 +7008,7 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="37" thickBot="1">
-      <c r="A38" s="146"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="135" t="s">
         <v>457</v>
       </c>
@@ -7015,9 +7029,9 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="25" thickBot="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
       <c r="D39" s="122" t="s">
         <v>656</v>
       </c>
@@ -7032,9 +7046,9 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
       <c r="D40" s="120" t="s">
         <v>459</v>
       </c>
@@ -7049,9 +7063,9 @@
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="120" t="s">
         <v>460</v>
       </c>
@@ -7066,9 +7080,9 @@
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="110" t="s">
         <v>13</v>
       </c>
@@ -7083,9 +7097,9 @@
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="146"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="104" t="s">
         <v>462</v>
       </c>
@@ -7100,9 +7114,9 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="25" thickBot="1">
-      <c r="A44" s="146"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="117" t="s">
         <v>14</v>
       </c>
@@ -7117,9 +7131,9 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="110" t="s">
         <v>15</v>
       </c>
@@ -7134,9 +7148,9 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="146"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="110" t="s">
         <v>16</v>
       </c>
@@ -7151,7 +7165,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
-      <c r="A47" s="146"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="136"/>
       <c r="C47" s="136"/>
       <c r="D47" s="110" t="s">
@@ -7168,7 +7182,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A48" s="146"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="104" t="s">
         <v>463</v>
       </c>
@@ -7185,7 +7199,7 @@
       <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="25" thickBot="1">
-      <c r="A49" s="146"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="123" t="s">
         <v>465</v>
       </c>
@@ -7202,8 +7216,8 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="61" thickBot="1">
-      <c r="A50" s="146"/>
-      <c r="B50" s="163" t="s">
+      <c r="A50" s="157"/>
+      <c r="B50" s="154" t="s">
         <v>467</v>
       </c>
       <c r="C50" s="120" t="s">
@@ -7221,9 +7235,9 @@
       <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="73" thickBot="1">
-      <c r="A51" s="146"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="159" t="s">
+      <c r="A51" s="157"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="146" t="s">
         <v>470</v>
       </c>
       <c r="D51" s="104" t="s">
@@ -7240,9 +7254,9 @@
       <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="25" thickBot="1">
-      <c r="A52" s="146"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="160"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="104" t="s">
         <v>428</v>
       </c>
@@ -7257,9 +7271,9 @@
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="25" thickBot="1">
-      <c r="A53" s="146"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="160"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="147"/>
       <c r="D53" s="104" t="s">
         <v>430</v>
       </c>
@@ -7274,9 +7288,9 @@
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="162"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="104" t="s">
         <v>472</v>
       </c>
@@ -7291,7 +7305,7 @@
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="25" thickBot="1">
-      <c r="A55" s="146"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="125" t="s">
         <v>474</v>
       </c>
@@ -7306,7 +7320,7 @@
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="73" thickBot="1">
-      <c r="A56" s="146"/>
+      <c r="A56" s="157"/>
       <c r="B56" s="103" t="s">
         <v>476</v>
       </c>
@@ -7323,7 +7337,7 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="49" thickBot="1">
-      <c r="A57" s="146"/>
+      <c r="A57" s="157"/>
       <c r="B57" s="119" t="s">
         <v>18</v>
       </c>
@@ -7340,7 +7354,7 @@
       <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A58" s="146"/>
+      <c r="A58" s="157"/>
       <c r="B58" s="124" t="s">
         <v>19</v>
       </c>
@@ -7357,7 +7371,7 @@
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="25" thickBot="1">
-      <c r="A59" s="146"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="104" t="s">
         <v>482</v>
       </c>
@@ -7374,7 +7388,7 @@
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A60" s="146"/>
+      <c r="A60" s="157"/>
       <c r="B60" s="104" t="s">
         <v>472</v>
       </c>
@@ -7391,44 +7405,56 @@
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="146"/>
-      <c r="B61" s="147" t="s">
+      <c r="A61" s="157"/>
+      <c r="B61" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="147"/>
+      <c r="C61" s="149"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="G61" s="155" t="s">
+      <c r="G61" s="158" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="146"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
+      <c r="A62" s="157"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="G62" s="156"/>
+      <c r="G62" s="159"/>
     </row>
     <row r="63" spans="1:9" ht="25" thickBot="1">
       <c r="A63" s="136"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="136"/>
       <c r="E63" s="136"/>
       <c r="F63" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G63" s="157"/>
+      <c r="G63" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -7438,18 +7464,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C38:C47"/>
     <mergeCell ref="B38:B47"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7832,7 +7846,7 @@
       <c r="E24" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="155" t="s">
+      <c r="F24" s="158" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7844,7 +7858,7 @@
       <c r="E25" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F25" s="156"/>
+      <c r="F25" s="159"/>
     </row>
     <row r="26" spans="1:6" ht="25" thickBot="1">
       <c r="A26" s="166"/>
@@ -7854,7 +7868,7 @@
       <c r="E26" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="160"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -7923,17 +7937,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="178" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="183" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="181" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="47" t="s">
@@ -7941,19 +7955,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="186"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" thickBot="1">
-      <c r="A4" s="186"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="123" t="s">
         <v>500</v>
       </c>
@@ -7969,7 +7983,7 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1">
-      <c r="A5" s="186"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="123"/>
       <c r="C5" s="135" t="s">
         <v>414</v>
@@ -7987,7 +8001,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="A6" s="186"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="123"/>
       <c r="C6" s="136"/>
       <c r="D6" s="104" t="s">
@@ -8003,15 +8017,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63" customHeight="1">
-      <c r="A7" s="186"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="147" t="s">
+      <c r="A7" s="179"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="183" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="181" t="s">
         <v>501</v>
       </c>
       <c r="H7" s="47" t="s">
@@ -8019,21 +8033,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="186"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="184"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="182"/>
       <c r="H8" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="186"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="123"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="149" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="104" t="s">
@@ -8049,9 +8063,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="186"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="123"/>
-      <c r="C10" s="148"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="120" t="s">
         <v>417</v>
       </c>
@@ -8065,10 +8079,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="186"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="123"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="159" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="146" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="110" t="s">
@@ -8083,15 +8097,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="160"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="135" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="183" t="s">
+      <c r="F12" s="149"/>
+      <c r="G12" s="181" t="s">
         <v>503</v>
       </c>
       <c r="H12" s="47" t="s">
@@ -8099,22 +8113,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="160"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="136"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="184"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="186"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="123"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="104" t="s">
         <v>451</v>
       </c>
@@ -8127,7 +8141,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37" thickBot="1">
-      <c r="A15" s="186"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="123"/>
       <c r="C15" s="104" t="s">
         <v>504</v>
@@ -8143,7 +8157,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="186"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="123"/>
       <c r="C16" s="123" t="s">
         <v>506</v>
@@ -8159,12 +8173,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" thickBot="1">
-      <c r="A17" s="186"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="127"/>
       <c r="C17" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="146" t="s">
         <v>507</v>
       </c>
       <c r="E17" s="104" t="s">
@@ -8179,10 +8193,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" thickBot="1">
-      <c r="A18" s="186"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="127"/>
       <c r="C18" s="118"/>
-      <c r="D18" s="160"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="110" t="s">
         <v>134</v>
       </c>
@@ -8195,10 +8209,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" thickBot="1">
-      <c r="A19" s="186"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="127"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="160"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="104" t="s">
         <v>512</v>
       </c>
@@ -8211,10 +8225,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" thickBot="1">
-      <c r="A20" s="186"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="127"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="160"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="110" t="s">
         <v>135</v>
       </c>
@@ -8227,10 +8241,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" thickBot="1">
-      <c r="A21" s="186"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="127"/>
       <c r="C21" s="118"/>
-      <c r="D21" s="160"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="104" t="s">
         <v>515</v>
       </c>
@@ -8243,10 +8257,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" thickBot="1">
-      <c r="A22" s="186"/>
+      <c r="A22" s="179"/>
       <c r="B22" s="127"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="160"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="110" t="s">
         <v>136</v>
       </c>
@@ -8259,10 +8273,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A23" s="186"/>
+      <c r="A23" s="179"/>
       <c r="B23" s="127"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="160"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="104" t="s">
         <v>518</v>
       </c>
@@ -8275,10 +8289,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" thickBot="1">
-      <c r="A24" s="186"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="127"/>
       <c r="C24" s="118"/>
-      <c r="D24" s="162"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="110" t="s">
         <v>137</v>
       </c>
@@ -8291,10 +8305,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="186"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="127"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="179" t="s">
+      <c r="D25" s="184" t="s">
         <v>521</v>
       </c>
       <c r="E25" s="104" t="s">
@@ -8309,10 +8323,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1">
-      <c r="A26" s="186"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="127"/>
       <c r="C26" s="118"/>
-      <c r="D26" s="160"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="110" t="s">
         <v>138</v>
       </c>
@@ -8325,11 +8339,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" thickBot="1">
-      <c r="A27" s="186"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="127"/>
       <c r="C27" s="118"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="147" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="149" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="104" t="s">
@@ -8343,11 +8357,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="186"/>
+      <c r="A28" s="179"/>
       <c r="B28" s="127"/>
       <c r="C28" s="118"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="148"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="150"/>
       <c r="F28" s="104" t="s">
         <v>428</v>
       </c>
@@ -8359,11 +8373,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" thickBot="1">
-      <c r="A29" s="186"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="127"/>
       <c r="C29" s="118"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="158"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="104" t="s">
         <v>430</v>
       </c>
@@ -8375,10 +8389,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" thickBot="1">
-      <c r="A30" s="186"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="127"/>
       <c r="C30" s="118"/>
-      <c r="D30" s="159" t="s">
+      <c r="D30" s="146" t="s">
         <v>528</v>
       </c>
       <c r="E30" s="104" t="s">
@@ -8393,10 +8407,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" thickBot="1">
-      <c r="A31" s="186"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="127"/>
       <c r="C31" s="118"/>
-      <c r="D31" s="160"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="110" t="s">
         <v>397</v>
       </c>
@@ -8409,10 +8423,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" thickBot="1">
-      <c r="A32" s="186"/>
+      <c r="A32" s="179"/>
       <c r="B32" s="127"/>
       <c r="C32" s="118"/>
-      <c r="D32" s="160"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="104" t="s">
         <v>533</v>
       </c>
@@ -8425,10 +8439,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="25" thickBot="1">
-      <c r="A33" s="186"/>
+      <c r="A33" s="179"/>
       <c r="B33" s="127"/>
       <c r="C33" s="118"/>
-      <c r="D33" s="160"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="110" t="s">
         <v>398</v>
       </c>
@@ -8441,10 +8455,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="25" thickBot="1">
-      <c r="A34" s="186"/>
+      <c r="A34" s="179"/>
       <c r="B34" s="127"/>
       <c r="C34" s="118"/>
-      <c r="D34" s="160"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="104" t="s">
         <v>536</v>
       </c>
@@ -8457,10 +8471,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" thickBot="1">
-      <c r="A35" s="186"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="127"/>
       <c r="C35" s="118"/>
-      <c r="D35" s="160"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="110" t="s">
         <v>399</v>
       </c>
@@ -8473,10 +8487,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25" thickBot="1">
-      <c r="A36" s="186"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="127"/>
       <c r="C36" s="118"/>
-      <c r="D36" s="160"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="104" t="s">
         <v>539</v>
       </c>
@@ -8489,10 +8503,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="25" thickBot="1">
-      <c r="A37" s="186"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="127"/>
       <c r="C37" s="118"/>
-      <c r="D37" s="161"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="110" t="s">
         <v>400</v>
       </c>
@@ -8505,10 +8519,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="186"/>
+      <c r="A38" s="179"/>
       <c r="B38" s="127"/>
       <c r="C38" s="118"/>
-      <c r="D38" s="159" t="s">
+      <c r="D38" s="146" t="s">
         <v>542</v>
       </c>
       <c r="E38" s="104" t="s">
@@ -8523,10 +8537,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="25" thickBot="1">
-      <c r="A39" s="186"/>
+      <c r="A39" s="179"/>
       <c r="B39" s="127"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="160"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="110" t="s">
         <v>138</v>
       </c>
@@ -8539,11 +8553,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="186"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="127"/>
       <c r="C40" s="118"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="180" t="s">
+      <c r="D40" s="147"/>
+      <c r="E40" s="185" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="104" t="s">
@@ -8557,11 +8571,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="37" thickBot="1">
-      <c r="A41" s="186"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="127"/>
       <c r="C41" s="118"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="181"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="104" t="s">
         <v>543</v>
       </c>
@@ -8573,11 +8587,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="186"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="127"/>
       <c r="C42" s="118"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="182"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="187"/>
       <c r="F42" s="104" t="s">
         <v>545</v>
       </c>
@@ -8589,10 +8603,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="37" thickBot="1">
-      <c r="A43" s="186"/>
+      <c r="A43" s="179"/>
       <c r="B43" s="127"/>
       <c r="C43" s="118"/>
-      <c r="D43" s="159" t="s">
+      <c r="D43" s="146" t="s">
         <v>546</v>
       </c>
       <c r="E43" s="104" t="s">
@@ -8607,10 +8621,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="37" thickBot="1">
-      <c r="A44" s="186"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="127"/>
       <c r="C44" s="118"/>
-      <c r="D44" s="160"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="104" t="s">
         <v>549</v>
       </c>
@@ -8623,10 +8637,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="25" thickBot="1">
-      <c r="A45" s="186"/>
+      <c r="A45" s="179"/>
       <c r="B45" s="127"/>
       <c r="C45" s="118"/>
-      <c r="D45" s="160"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="135" t="s">
         <v>551</v>
       </c>
@@ -8641,11 +8655,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" thickBot="1">
-      <c r="A46" s="186"/>
+      <c r="A46" s="179"/>
       <c r="B46" s="127"/>
       <c r="C46" s="118"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="157"/>
       <c r="F46" s="104" t="s">
         <v>428</v>
       </c>
@@ -8657,11 +8671,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="25" thickBot="1">
-      <c r="A47" s="186"/>
+      <c r="A47" s="179"/>
       <c r="B47" s="127"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="157"/>
       <c r="F47" s="104" t="s">
         <v>430</v>
       </c>
@@ -8673,10 +8687,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" thickBot="1">
-      <c r="A48" s="186"/>
+      <c r="A48" s="179"/>
       <c r="B48" s="127"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="160"/>
+      <c r="D48" s="147"/>
       <c r="E48" s="136"/>
       <c r="F48" s="104" t="s">
         <v>472</v>
@@ -8689,10 +8703,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" thickBot="1">
-      <c r="A49" s="186"/>
+      <c r="A49" s="179"/>
       <c r="B49" s="127"/>
       <c r="C49" s="118"/>
-      <c r="D49" s="160"/>
+      <c r="D49" s="147"/>
       <c r="E49" s="135" t="s">
         <v>556</v>
       </c>
@@ -8707,11 +8721,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="25" thickBot="1">
-      <c r="A50" s="186"/>
+      <c r="A50" s="179"/>
       <c r="B50" s="127"/>
       <c r="C50" s="118"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="104" t="s">
         <v>428</v>
       </c>
@@ -8723,11 +8737,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="25" thickBot="1">
-      <c r="A51" s="186"/>
+      <c r="A51" s="179"/>
       <c r="B51" s="127"/>
       <c r="C51" s="118"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="146"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="157"/>
       <c r="F51" s="104" t="s">
         <v>430</v>
       </c>
@@ -8739,10 +8753,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1">
-      <c r="A52" s="186"/>
+      <c r="A52" s="179"/>
       <c r="B52" s="127"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="160"/>
+      <c r="D52" s="147"/>
       <c r="E52" s="136"/>
       <c r="F52" s="104" t="s">
         <v>472</v>
@@ -8755,10 +8769,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="186"/>
+      <c r="A53" s="179"/>
       <c r="B53" s="127"/>
       <c r="C53" s="118"/>
-      <c r="D53" s="160"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="104" t="s">
         <v>561</v>
       </c>
@@ -8771,10 +8785,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" thickBot="1">
-      <c r="A54" s="186"/>
+      <c r="A54" s="179"/>
       <c r="B54" s="127"/>
       <c r="C54" s="118"/>
-      <c r="D54" s="160"/>
+      <c r="D54" s="147"/>
       <c r="E54" s="104" t="s">
         <v>563</v>
       </c>
@@ -8787,10 +8801,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="25" thickBot="1">
-      <c r="A55" s="186"/>
+      <c r="A55" s="179"/>
       <c r="B55" s="127"/>
       <c r="C55" s="118"/>
-      <c r="D55" s="160"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="104" t="s">
         <v>565</v>
       </c>
@@ -8803,10 +8817,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" thickBot="1">
-      <c r="A56" s="186"/>
+      <c r="A56" s="179"/>
       <c r="B56" s="127"/>
       <c r="C56" s="118"/>
-      <c r="D56" s="160"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="104" t="s">
         <v>567</v>
       </c>
@@ -8819,10 +8833,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" thickBot="1">
-      <c r="A57" s="186"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="127"/>
       <c r="C57" s="118"/>
-      <c r="D57" s="161"/>
+      <c r="D57" s="148"/>
       <c r="E57" s="104" t="s">
         <v>568</v>
       </c>
@@ -8835,10 +8849,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="37" thickBot="1">
-      <c r="A58" s="186"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="127"/>
       <c r="C58" s="118"/>
-      <c r="D58" s="159" t="s">
+      <c r="D58" s="146" t="s">
         <v>401</v>
       </c>
       <c r="E58" s="104" t="s">
@@ -8853,10 +8867,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="37" thickBot="1">
-      <c r="A59" s="186"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="127"/>
       <c r="C59" s="118"/>
-      <c r="D59" s="160"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="123" t="s">
         <v>549</v>
       </c>
@@ -8869,10 +8883,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1">
-      <c r="A60" s="186"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="127"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="160"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="115" t="s">
         <v>572</v>
       </c>
@@ -8887,10 +8901,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="37" thickBot="1">
-      <c r="A61" s="186"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="127"/>
       <c r="C61" s="118"/>
-      <c r="D61" s="160"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="116"/>
       <c r="F61" s="104" t="s">
         <v>543</v>
@@ -8903,10 +8917,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" thickBot="1">
-      <c r="A62" s="186"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="127"/>
       <c r="C62" s="118"/>
-      <c r="D62" s="160"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="111"/>
       <c r="F62" s="104" t="s">
         <v>545</v>
@@ -8919,10 +8933,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" thickBot="1">
-      <c r="A63" s="186"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="127"/>
       <c r="C63" s="118"/>
-      <c r="D63" s="160"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="116" t="s">
         <v>576</v>
       </c>
@@ -8937,10 +8951,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="37" thickBot="1">
-      <c r="A64" s="186"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="127"/>
       <c r="C64" s="118"/>
-      <c r="D64" s="160"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="116"/>
       <c r="F64" s="104" t="s">
         <v>543</v>
@@ -8953,10 +8967,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" thickBot="1">
-      <c r="A65" s="186"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="127"/>
       <c r="C65" s="118"/>
-      <c r="D65" s="160"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="111"/>
       <c r="F65" s="104" t="s">
         <v>545</v>
@@ -8969,10 +8983,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" thickBot="1">
-      <c r="A66" s="186"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="127"/>
       <c r="C66" s="118"/>
-      <c r="D66" s="160"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="104" t="s">
         <v>579</v>
       </c>
@@ -8985,10 +8999,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" thickBot="1">
-      <c r="A67" s="186"/>
+      <c r="A67" s="179"/>
       <c r="B67" s="127"/>
       <c r="C67" s="118"/>
-      <c r="D67" s="161"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="104" t="s">
         <v>581</v>
       </c>
@@ -9001,10 +9015,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" thickBot="1">
-      <c r="A68" s="186"/>
+      <c r="A68" s="179"/>
       <c r="B68" s="127"/>
       <c r="C68" s="118"/>
-      <c r="D68" s="159" t="s">
+      <c r="D68" s="146" t="s">
         <v>583</v>
       </c>
       <c r="E68" s="135" t="s">
@@ -9021,10 +9035,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="37" thickBot="1">
-      <c r="A69" s="186"/>
+      <c r="A69" s="179"/>
       <c r="B69" s="127"/>
       <c r="C69" s="118"/>
-      <c r="D69" s="160"/>
+      <c r="D69" s="147"/>
       <c r="E69" s="136"/>
       <c r="F69" s="104" t="s">
         <v>586</v>
@@ -9037,11 +9051,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="37" thickBot="1">
-      <c r="A70" s="186"/>
+      <c r="A70" s="179"/>
       <c r="B70" s="127"/>
       <c r="C70" s="118"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="147" t="s">
+      <c r="D70" s="147"/>
+      <c r="E70" s="149" t="s">
         <v>141</v>
       </c>
       <c r="F70" s="104" t="s">
@@ -9055,11 +9069,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="37" thickBot="1">
-      <c r="A71" s="186"/>
+      <c r="A71" s="179"/>
       <c r="B71" s="127"/>
       <c r="C71" s="118"/>
-      <c r="D71" s="160"/>
-      <c r="E71" s="148"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="150"/>
       <c r="F71" s="104" t="s">
         <v>428</v>
       </c>
@@ -9071,11 +9085,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" thickBot="1">
-      <c r="A72" s="186"/>
+      <c r="A72" s="179"/>
       <c r="B72" s="127"/>
       <c r="C72" s="118"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="148"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="150"/>
       <c r="F72" s="104" t="s">
         <v>430</v>
       </c>
@@ -9087,11 +9101,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" thickBot="1">
-      <c r="A73" s="186"/>
+      <c r="A73" s="179"/>
       <c r="B73" s="127"/>
       <c r="C73" s="118"/>
-      <c r="D73" s="160"/>
-      <c r="E73" s="158"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="151"/>
       <c r="F73" s="104" t="s">
         <v>472</v>
       </c>
@@ -9103,11 +9117,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="37" thickBot="1">
-      <c r="A74" s="186"/>
+      <c r="A74" s="179"/>
       <c r="B74" s="127"/>
       <c r="C74" s="118"/>
-      <c r="D74" s="160"/>
-      <c r="E74" s="147" t="s">
+      <c r="D74" s="147"/>
+      <c r="E74" s="149" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="104" t="s">
@@ -9121,11 +9135,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="37" thickBot="1">
-      <c r="A75" s="186"/>
+      <c r="A75" s="179"/>
       <c r="B75" s="127"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="160"/>
-      <c r="E75" s="148"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="150"/>
       <c r="F75" s="104" t="s">
         <v>428</v>
       </c>
@@ -9137,11 +9151,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="25" thickBot="1">
-      <c r="A76" s="186"/>
+      <c r="A76" s="179"/>
       <c r="B76" s="127"/>
       <c r="C76" s="118"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="148"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="150"/>
       <c r="F76" s="104" t="s">
         <v>430</v>
       </c>
@@ -9153,11 +9167,11 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" thickBot="1">
-      <c r="A77" s="186"/>
+      <c r="A77" s="179"/>
       <c r="B77" s="127"/>
       <c r="C77" s="118"/>
-      <c r="D77" s="160"/>
-      <c r="E77" s="158"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="151"/>
       <c r="F77" s="104" t="s">
         <v>472</v>
       </c>
@@ -9169,10 +9183,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37" thickBot="1">
-      <c r="A78" s="186"/>
+      <c r="A78" s="179"/>
       <c r="B78" s="127"/>
       <c r="C78" s="118"/>
-      <c r="D78" s="160"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="104" t="s">
         <v>593</v>
       </c>
@@ -9185,10 +9199,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="37" thickBot="1">
-      <c r="A79" s="186"/>
+      <c r="A79" s="179"/>
       <c r="B79" s="127"/>
       <c r="C79" s="118"/>
-      <c r="D79" s="160"/>
+      <c r="D79" s="147"/>
       <c r="E79" s="104" t="s">
         <v>563</v>
       </c>
@@ -9201,10 +9215,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="37" thickBot="1">
-      <c r="A80" s="186"/>
+      <c r="A80" s="179"/>
       <c r="B80" s="127"/>
       <c r="C80" s="118"/>
-      <c r="D80" s="160"/>
+      <c r="D80" s="147"/>
       <c r="E80" s="104" t="s">
         <v>565</v>
       </c>
@@ -9217,10 +9231,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="37" thickBot="1">
-      <c r="A81" s="186"/>
+      <c r="A81" s="179"/>
       <c r="B81" s="127"/>
       <c r="C81" s="118"/>
-      <c r="D81" s="161"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="104" t="s">
         <v>598</v>
       </c>
@@ -9233,7 +9247,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" thickBot="1">
-      <c r="A82" s="186"/>
+      <c r="A82" s="179"/>
       <c r="B82" s="123"/>
       <c r="C82" s="128" t="s">
         <v>143</v>
@@ -9249,9 +9263,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="61" thickBot="1">
-      <c r="A83" s="186"/>
+      <c r="A83" s="179"/>
       <c r="B83" s="123"/>
-      <c r="C83" s="163" t="s">
+      <c r="C83" s="154" t="s">
         <v>467</v>
       </c>
       <c r="D83" s="120" t="s">
@@ -9267,10 +9281,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" thickBot="1">
-      <c r="A84" s="186"/>
+      <c r="A84" s="179"/>
       <c r="B84" s="123"/>
-      <c r="C84" s="153"/>
-      <c r="D84" s="159" t="s">
+      <c r="C84" s="155"/>
+      <c r="D84" s="146" t="s">
         <v>603</v>
       </c>
       <c r="E84" s="104" t="s">
@@ -9285,10 +9299,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="37" thickBot="1">
-      <c r="A85" s="186"/>
+      <c r="A85" s="179"/>
       <c r="B85" s="123"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="160"/>
+      <c r="C85" s="155"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="104" t="s">
         <v>504</v>
       </c>
@@ -9301,10 +9315,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A86" s="186"/>
+      <c r="A86" s="179"/>
       <c r="B86" s="123"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="161"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="104" t="s">
         <v>545</v>
       </c>
@@ -9317,7 +9331,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="25" thickBot="1">
-      <c r="A87" s="186"/>
+      <c r="A87" s="179"/>
       <c r="B87" s="123"/>
       <c r="C87" s="103" t="s">
         <v>482</v>
@@ -9333,7 +9347,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A88" s="186"/>
+      <c r="A88" s="179"/>
       <c r="B88" s="123"/>
       <c r="C88" s="104" t="s">
         <v>545</v>
@@ -9349,41 +9363,57 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="186"/>
-      <c r="B89" s="146"/>
+      <c r="A89" s="179"/>
+      <c r="B89" s="157"/>
       <c r="C89" s="135" t="s">
         <v>608</v>
       </c>
-      <c r="D89" s="147"/>
+      <c r="D89" s="149"/>
       <c r="E89" s="135"/>
-      <c r="F89" s="147"/>
+      <c r="F89" s="149"/>
       <c r="G89" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="H89" s="155" t="s">
+      <c r="H89" s="158" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" thickBot="1">
-      <c r="A90" s="187"/>
+      <c r="A90" s="180"/>
       <c r="B90" s="136"/>
       <c r="C90" s="136"/>
-      <c r="D90" s="158"/>
+      <c r="D90" s="151"/>
       <c r="E90" s="136"/>
-      <c r="F90" s="158"/>
+      <c r="F90" s="151"/>
       <c r="G90" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="H90" s="157"/>
+      <c r="H90" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A90"/>
     <mergeCell ref="D30:D37"/>
     <mergeCell ref="D38:D42"/>
@@ -9398,28 +9428,12 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9461,7 +9475,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="154" t="s">
         <v>474</v>
       </c>
       <c r="B2" s="105" t="s">
@@ -9476,7 +9490,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="153"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="120" t="s">
         <v>417</v>
       </c>
@@ -9489,8 +9503,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" thickBot="1">
-      <c r="A4" s="153"/>
-      <c r="B4" s="159" t="s">
+      <c r="A4" s="155"/>
+      <c r="B4" s="146" t="s">
         <v>448</v>
       </c>
       <c r="C4" s="119" t="s">
@@ -9504,8 +9518,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" thickBot="1">
-      <c r="A5" s="153"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="106" t="s">
         <v>450</v>
       </c>
@@ -9517,8 +9531,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" thickBot="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="106" t="s">
         <v>451</v>
       </c>
@@ -9530,7 +9544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="37" thickBot="1">
-      <c r="A7" s="153"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="124" t="s">
         <v>212</v>
       </c>
@@ -9543,7 +9557,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="49" thickBot="1">
-      <c r="A8" s="153"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="106" t="s">
         <v>614</v>
       </c>
@@ -9556,7 +9570,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" thickBot="1">
-      <c r="A9" s="153"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="106" t="s">
         <v>616</v>
       </c>
@@ -9569,7 +9583,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A10" s="153"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="106" t="s">
         <v>618</v>
       </c>
@@ -9582,7 +9596,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="37" thickBot="1">
-      <c r="A11" s="153"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="124" t="s">
         <v>211</v>
       </c>
@@ -9595,7 +9609,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="37" thickBot="1">
-      <c r="A12" s="153"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="124" t="s">
         <v>210</v>
       </c>
@@ -9608,7 +9622,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="97" thickBot="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="117" t="s">
         <v>321</v>
       </c>
@@ -9645,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109:C114"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
@@ -9662,10 +9676,10 @@
     <row r="1" spans="1:3" ht="15" thickBot="1"/>
     <row r="2" spans="1:3" ht="16" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="192"/>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1">
       <c r="A3"/>
@@ -9724,10 +9738,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="192"/>
+      <c r="C10" s="190"/>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11"/>
@@ -9829,10 +9843,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
       <c r="A23"/>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="192"/>
+      <c r="C23" s="190"/>
     </row>
     <row r="24" spans="1:3" ht="16" thickBot="1">
       <c r="A24"/>
@@ -9873,10 +9887,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" thickBot="1">
       <c r="A29"/>
-      <c r="B29" s="191" t="s">
+      <c r="B29" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="192"/>
+      <c r="C29" s="190"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
       <c r="A30"/>
@@ -9917,10 +9931,10 @@
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1">
       <c r="A35"/>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="192"/>
+      <c r="C35" s="190"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
       <c r="A36"/>
@@ -9961,10 +9975,10 @@
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1">
       <c r="A41"/>
-      <c r="B41" s="191" t="s">
+      <c r="B41" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="190"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1">
       <c r="A42"/>
@@ -10005,10 +10019,10 @@
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1">
       <c r="A47"/>
-      <c r="B47" s="191" t="s">
+      <c r="B47" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="192"/>
+      <c r="C47" s="190"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1">
       <c r="A48"/>
@@ -10085,10 +10099,10 @@
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57"/>
-      <c r="B57" s="191" t="s">
+      <c r="B57" s="189" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="192"/>
+      <c r="C57" s="190"/>
       <c r="D57" s="85"/>
       <c r="E57" s="86"/>
     </row>
@@ -10266,10 +10280,10 @@
     </row>
     <row r="78" spans="1:3" ht="16" thickBot="1">
       <c r="A78"/>
-      <c r="B78" s="191" t="s">
+      <c r="B78" s="189" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="192"/>
+      <c r="C78" s="190"/>
     </row>
     <row r="79" spans="1:3" ht="16" thickBot="1">
       <c r="A79"/>
@@ -10436,10 +10450,10 @@
     </row>
     <row r="98" spans="1:4" ht="16" thickBot="1">
       <c r="A98"/>
-      <c r="B98" s="191" t="s">
+      <c r="B98" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="192"/>
+      <c r="C98" s="190"/>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1">
       <c r="A99"/>
@@ -10510,10 +10524,10 @@
     </row>
     <row r="106" spans="1:4" ht="16" thickBot="1">
       <c r="A106"/>
-      <c r="B106" s="191" t="s">
+      <c r="B106" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="192"/>
+      <c r="C106" s="190"/>
     </row>
     <row r="107" spans="1:4" ht="16" thickBot="1">
       <c r="A107"/>
@@ -10537,6 +10551,9 @@
       <c r="C109" s="64" t="s">
         <v>44</v>
       </c>
+      <c r="D109" s="15" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="16" thickBot="1">
       <c r="A110"/>
@@ -10590,10 +10607,10 @@
     </row>
     <row r="116" spans="1:3" ht="16" thickBot="1">
       <c r="A116"/>
-      <c r="B116" s="191" t="s">
+      <c r="B116" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="192"/>
+      <c r="C116" s="190"/>
     </row>
     <row r="117" spans="1:3" ht="16" thickBot="1">
       <c r="A117"/>
@@ -10625,10 +10642,10 @@
     </row>
     <row r="121" spans="1:3" ht="16" thickBot="1">
       <c r="A121"/>
-      <c r="B121" s="191" t="s">
+      <c r="B121" s="189" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="192"/>
+      <c r="C121" s="190"/>
     </row>
     <row r="122" spans="1:3" ht="16" thickBot="1">
       <c r="A122"/>
@@ -10669,10 +10686,10 @@
     </row>
     <row r="127" spans="1:3" ht="16" thickBot="1">
       <c r="A127"/>
-      <c r="B127" s="191" t="s">
+      <c r="B127" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="192"/>
+      <c r="C127" s="190"/>
     </row>
     <row r="128" spans="1:3" ht="16" thickBot="1">
       <c r="A128"/>
@@ -10702,10 +10719,10 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1">
-      <c r="B132" s="191" t="s">
+      <c r="B132" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="192"/>
+      <c r="C132" s="190"/>
     </row>
     <row r="133" spans="1:3" ht="16" thickBot="1">
       <c r="B133"/>
@@ -10748,10 +10765,10 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1">
-      <c r="B139" s="191" t="s">
+      <c r="B139" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="192"/>
+      <c r="C139" s="190"/>
     </row>
     <row r="140" spans="1:3" ht="16" thickBot="1">
       <c r="B140"/>
@@ -10794,10 +10811,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:3" ht="15" thickBot="1">
-      <c r="B146" s="191" t="s">
+      <c r="B146" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="192"/>
+      <c r="C146" s="190"/>
     </row>
     <row r="147" spans="2:3" ht="16" thickBot="1">
       <c r="B147"/>
@@ -10944,10 +10961,10 @@
       <c r="C165" s="76"/>
     </row>
     <row r="166" spans="2:3" ht="15" thickBot="1">
-      <c r="B166" s="191" t="s">
+      <c r="B166" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="192"/>
+      <c r="C166" s="190"/>
     </row>
     <row r="167" spans="2:3" ht="16" thickBot="1">
       <c r="B167"/>
@@ -11054,10 +11071,10 @@
       <c r="C180" s="79"/>
     </row>
     <row r="181" spans="2:3" ht="15" thickBot="1">
-      <c r="B181" s="191" t="s">
+      <c r="B181" s="189" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="192"/>
+      <c r="C181" s="190"/>
     </row>
     <row r="182" spans="2:3" ht="15" thickBot="1">
       <c r="B182" s="70"/>
@@ -11092,10 +11109,10 @@
       <c r="C186"/>
     </row>
     <row r="187" spans="2:3" ht="15" thickBot="1">
-      <c r="B187" s="191" t="s">
+      <c r="B187" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C187" s="192"/>
+      <c r="C187" s="190"/>
     </row>
     <row r="188" spans="2:3" ht="16" thickBot="1">
       <c r="B188"/>
@@ -11127,13 +11144,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B10:C10"/>
@@ -11148,6 +11158,13 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B181:C181"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -11234,62 +11251,62 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="34"/>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="205" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="198" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="198" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="198" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="G3" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="206"/>
-      <c r="J3" s="207"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" thickBot="1">
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
       <c r="H4" s="33" t="s">
         <v>242</v>
       </c>
@@ -11301,17 +11318,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="198"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
     </row>
     <row r="6" spans="1:11" ht="53" thickBot="1">
       <c r="B6" s="32" t="s">
@@ -11332,7 +11349,7 @@
       <c r="G6" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="202" t="s">
+      <c r="H6" s="204" t="s">
         <v>223</v>
       </c>
       <c r="I6" s="203" t="s">
@@ -11362,23 +11379,23 @@
       <c r="G7" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="202"/>
+      <c r="H7" s="204"/>
       <c r="I7" s="203"/>
       <c r="J7" s="203"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="66" thickBot="1">
@@ -11403,10 +11420,10 @@
       <c r="H9" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="202" t="s">
+      <c r="I9" s="204" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="202" t="s">
+      <c r="J9" s="204" t="s">
         <v>229</v>
       </c>
       <c r="K9" s="29"/>
@@ -11431,22 +11448,22 @@
         <v>266</v>
       </c>
       <c r="H10" s="203"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="131" thickBot="1">
@@ -11468,7 +11485,7 @@
       <c r="G12" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="204" t="s">
         <v>223</v>
       </c>
       <c r="I12" s="203" t="s">
@@ -11498,7 +11515,7 @@
       <c r="G13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="202"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="203"/>
       <c r="J13" s="203"/>
       <c r="K13" s="29"/>
@@ -11509,98 +11526,109 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="201" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="194" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="200" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="194" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="194" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="H3:J3"/>
@@ -11617,17 +11645,6 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/DsRegistroVeriFactu.xlsx
+++ b/docs/DsRegistroVeriFactu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E181320-E8B6-0A4A-89C6-403041D14AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01852FF-DAF5-394B-AB39-C9FF3C5931A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="500" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="620" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0)Control de cambios" sheetId="19" r:id="rId1"/>
@@ -4712,6 +4712,45 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4721,51 +4760,12 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4808,6 +4808,27 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4817,45 +4838,54 @@
     <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4883,39 +4913,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4923,6 +4920,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5640,74 +5640,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="194" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="2:11" ht="16" thickBot="1">
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1">
-      <c r="B3" s="214" t="s">
+      <c r="B3" s="213" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="216"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="214"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="214"/>
+      <c r="H3" s="214"/>
+      <c r="I3" s="214"/>
+      <c r="J3" s="215"/>
     </row>
     <row r="4" spans="2:11" ht="16" thickBot="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="208" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="198" t="s">
+      <c r="D4" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="198" t="s">
+      <c r="E4" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="198" t="s">
+      <c r="F4" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="198" t="s">
+      <c r="G4" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="195" t="s">
+      <c r="H4" s="205" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="207"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="199"/>
-      <c r="E5" s="199"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="199"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
       <c r="H5" s="33" t="s">
         <v>242</v>
       </c>
@@ -5740,10 +5740,10 @@
       <c r="H6" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="204" t="s">
+      <c r="I6" s="202" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="204" t="s">
+      <c r="J6" s="202" t="s">
         <v>255</v>
       </c>
       <c r="K6" s="29"/>
@@ -5768,22 +5768,22 @@
         <v>278</v>
       </c>
       <c r="H7" s="203"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11" ht="16" thickBot="1">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="213" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="216"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="215"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:11" ht="92" thickBot="1">
@@ -5805,13 +5805,13 @@
       <c r="G9" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="204" t="s">
+      <c r="H9" s="202" t="s">
         <v>253</v>
       </c>
       <c r="I9" s="203" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="216" t="s">
         <v>252</v>
       </c>
       <c r="K9" s="29"/>
@@ -5835,9 +5835,9 @@
       <c r="G10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="204"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="203"/>
-      <c r="J10" s="213"/>
+      <c r="J10" s="216"/>
       <c r="K10" s="29"/>
     </row>
     <row r="12" spans="2:11">
@@ -5846,98 +5846,107 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="211" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="202" t="s">
+      <c r="B14" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="212"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="210"/>
+      <c r="I15" s="210"/>
+      <c r="J15" s="210"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="204" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="194"/>
-      <c r="F16" s="194"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="194"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="204"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
+      <c r="J16" s="204"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="204" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="204"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="204" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B8:J8"/>
@@ -5952,15 +5961,6 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6322,8 +6322,8 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -6364,7 +6364,7 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="37" thickBot="1">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="146" t="s">
         <v>422</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -6383,7 +6383,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="157"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="135" t="s">
         <v>426</v>
       </c>
@@ -6402,8 +6402,8 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="157"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="104" t="s">
         <v>428</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="157"/>
+      <c r="A5" s="146"/>
       <c r="B5" s="136"/>
       <c r="C5" s="104" t="s">
         <v>430</v>
@@ -6436,7 +6436,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="49" thickBot="1">
-      <c r="A6" s="157"/>
+      <c r="A6" s="146"/>
       <c r="B6" s="117" t="s">
         <v>685</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="157"/>
+      <c r="A7" s="146"/>
       <c r="B7" s="104" t="s">
         <v>432</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="61" thickBot="1">
-      <c r="A8" s="157"/>
+      <c r="A8" s="146"/>
       <c r="B8" s="117" t="s">
         <v>195</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="73" thickBot="1">
-      <c r="A9" s="157"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="117" t="s">
         <v>183</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="25" thickBot="1">
-      <c r="A10" s="157"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="104" t="s">
         <v>437</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="13" thickBot="1">
-      <c r="A11" s="157"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="110" t="s">
         <v>2</v>
       </c>
@@ -6538,8 +6538,8 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="147" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="135" t="s">
@@ -6559,9 +6559,9 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="157"/>
+      <c r="A13" s="146"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="104" t="s">
         <v>428</v>
       </c>
@@ -6576,9 +6576,9 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="157"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="162"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
       <c r="D14" s="104" t="s">
         <v>430</v>
       </c>
@@ -6593,11 +6593,11 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="157"/>
-      <c r="B15" s="152" t="s">
+      <c r="A15" s="146"/>
+      <c r="B15" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="163" t="s">
+      <c r="C15" s="152" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="104" t="s">
@@ -6614,9 +6614,9 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="157"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="155"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="153"/>
       <c r="D16" s="104" t="s">
         <v>428</v>
       </c>
@@ -6631,9 +6631,9 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1">
-      <c r="A17" s="157"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="156"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="104" t="s">
         <v>430</v>
       </c>
@@ -6648,8 +6648,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1">
-      <c r="A18" s="157"/>
-      <c r="B18" s="152" t="s">
+      <c r="A18" s="146"/>
+      <c r="B18" s="151" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -6667,8 +6667,8 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1">
-      <c r="A19" s="157"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="104" t="s">
         <v>443</v>
       </c>
@@ -6684,8 +6684,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="13" thickBot="1">
-      <c r="A20" s="157"/>
-      <c r="B20" s="151"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="110" t="s">
         <v>6</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13" thickBot="1">
-      <c r="A21" s="157"/>
+      <c r="A21" s="146"/>
       <c r="B21" s="110" t="s">
         <v>7</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1">
-      <c r="A22" s="157"/>
+      <c r="A22" s="146"/>
       <c r="B22" s="104" t="s">
         <v>444</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="25" thickBot="1">
-      <c r="A23" s="157"/>
+      <c r="A23" s="146"/>
       <c r="B23" s="119" t="s">
         <v>207</v>
       </c>
@@ -6752,7 +6752,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="25" thickBot="1">
-      <c r="A24" s="157"/>
+      <c r="A24" s="146"/>
       <c r="B24" s="119" t="s">
         <v>213</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="157"/>
+      <c r="A25" s="146"/>
       <c r="B25" s="110" t="s">
         <v>8</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="25" thickBot="1">
-      <c r="A26" s="157"/>
+      <c r="A26" s="146"/>
       <c r="B26" s="119" t="s">
         <v>202</v>
       </c>
@@ -6811,8 +6811,8 @@
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="149" t="s">
+      <c r="A27" s="146"/>
+      <c r="B27" s="147" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="104" t="s">
@@ -6830,8 +6830,8 @@
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="120" t="s">
         <v>417</v>
       </c>
@@ -6847,9 +6847,9 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="25" thickBot="1">
-      <c r="A29" s="157"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="146" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="159" t="s">
         <v>448</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -6866,9 +6866,9 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="147"/>
+      <c r="A30" s="146"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="104" t="s">
         <v>450</v>
       </c>
@@ -6883,9 +6883,9 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1">
-      <c r="A31" s="157"/>
-      <c r="B31" s="151"/>
-      <c r="C31" s="148"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="104" t="s">
         <v>451</v>
       </c>
@@ -6900,8 +6900,8 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="25" thickBot="1">
-      <c r="A32" s="157"/>
-      <c r="B32" s="149" t="s">
+      <c r="A32" s="146"/>
+      <c r="B32" s="147" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="135" t="s">
@@ -6921,9 +6921,9 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="25" thickBot="1">
-      <c r="A33" s="157"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="157"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="146"/>
       <c r="D33" s="120" t="s">
         <v>417</v>
       </c>
@@ -6938,10 +6938,10 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="25" thickBot="1">
-      <c r="A34" s="157"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="146" t="s">
+      <c r="A34" s="146"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="159" t="s">
         <v>448</v>
       </c>
       <c r="E34" s="110" t="s">
@@ -6957,10 +6957,10 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="25" thickBot="1">
-      <c r="A35" s="157"/>
-      <c r="B35" s="150"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="147"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="104" t="s">
         <v>450</v>
       </c>
@@ -6974,10 +6974,10 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="25" thickBot="1">
-      <c r="A36" s="157"/>
-      <c r="B36" s="151"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="158"/>
       <c r="C36" s="136"/>
-      <c r="D36" s="148"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="104" t="s">
         <v>451</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A37" s="157"/>
+      <c r="A37" s="146"/>
       <c r="B37" s="117" t="s">
         <v>12</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="37" thickBot="1">
-      <c r="A38" s="157"/>
+      <c r="A38" s="146"/>
       <c r="B38" s="135" t="s">
         <v>457</v>
       </c>
@@ -7029,9 +7029,9 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="25" thickBot="1">
-      <c r="A39" s="157"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
       <c r="D39" s="122" t="s">
         <v>656</v>
       </c>
@@ -7046,9 +7046,9 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="157"/>
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
       <c r="D40" s="120" t="s">
         <v>459</v>
       </c>
@@ -7063,9 +7063,9 @@
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="157"/>
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
       <c r="D41" s="120" t="s">
         <v>460</v>
       </c>
@@ -7080,9 +7080,9 @@
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
       <c r="D42" s="110" t="s">
         <v>13</v>
       </c>
@@ -7097,9 +7097,9 @@
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
       <c r="D43" s="104" t="s">
         <v>462</v>
       </c>
@@ -7114,9 +7114,9 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="25" thickBot="1">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
+      <c r="A44" s="146"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
       <c r="D44" s="117" t="s">
         <v>14</v>
       </c>
@@ -7131,9 +7131,9 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="157"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
+      <c r="A45" s="146"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="146"/>
       <c r="D45" s="110" t="s">
         <v>15</v>
       </c>
@@ -7148,9 +7148,9 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
       <c r="D46" s="110" t="s">
         <v>16</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
-      <c r="A47" s="157"/>
+      <c r="A47" s="146"/>
       <c r="B47" s="136"/>
       <c r="C47" s="136"/>
       <c r="D47" s="110" t="s">
@@ -7182,7 +7182,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A48" s="157"/>
+      <c r="A48" s="146"/>
       <c r="B48" s="104" t="s">
         <v>463</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="25" thickBot="1">
-      <c r="A49" s="157"/>
+      <c r="A49" s="146"/>
       <c r="B49" s="123" t="s">
         <v>465</v>
       </c>
@@ -7216,8 +7216,8 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="61" thickBot="1">
-      <c r="A50" s="157"/>
-      <c r="B50" s="154" t="s">
+      <c r="A50" s="146"/>
+      <c r="B50" s="163" t="s">
         <v>467</v>
       </c>
       <c r="C50" s="120" t="s">
@@ -7235,9 +7235,9 @@
       <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="73" thickBot="1">
-      <c r="A51" s="157"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="146" t="s">
+      <c r="A51" s="146"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="159" t="s">
         <v>470</v>
       </c>
       <c r="D51" s="104" t="s">
@@ -7254,9 +7254,9 @@
       <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="25" thickBot="1">
-      <c r="A52" s="157"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="147"/>
+      <c r="A52" s="146"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="160"/>
       <c r="D52" s="104" t="s">
         <v>428</v>
       </c>
@@ -7271,9 +7271,9 @@
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="25" thickBot="1">
-      <c r="A53" s="157"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="147"/>
+      <c r="A53" s="146"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="160"/>
       <c r="D53" s="104" t="s">
         <v>430</v>
       </c>
@@ -7288,9 +7288,9 @@
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A54" s="157"/>
-      <c r="B54" s="156"/>
-      <c r="C54" s="153"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="162"/>
       <c r="D54" s="104" t="s">
         <v>472</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="25" thickBot="1">
-      <c r="A55" s="157"/>
+      <c r="A55" s="146"/>
       <c r="B55" s="125" t="s">
         <v>474</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="73" thickBot="1">
-      <c r="A56" s="157"/>
+      <c r="A56" s="146"/>
       <c r="B56" s="103" t="s">
         <v>476</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="49" thickBot="1">
-      <c r="A57" s="157"/>
+      <c r="A57" s="146"/>
       <c r="B57" s="119" t="s">
         <v>18</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A58" s="157"/>
+      <c r="A58" s="146"/>
       <c r="B58" s="124" t="s">
         <v>19</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="25" thickBot="1">
-      <c r="A59" s="157"/>
+      <c r="A59" s="146"/>
       <c r="B59" s="104" t="s">
         <v>482</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A60" s="157"/>
+      <c r="A60" s="146"/>
       <c r="B60" s="104" t="s">
         <v>472</v>
       </c>
@@ -7405,56 +7405,44 @@
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="157"/>
-      <c r="B61" s="149" t="s">
+      <c r="A61" s="146"/>
+      <c r="B61" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="149"/>
+      <c r="C61" s="147"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="G61" s="158" t="s">
+      <c r="G61" s="155" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="157"/>
-      <c r="B62" s="150"/>
-      <c r="C62" s="150"/>
-      <c r="D62" s="157"/>
-      <c r="E62" s="157"/>
+      <c r="A62" s="146"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
       <c r="F62" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="G62" s="159"/>
+      <c r="G62" s="156"/>
     </row>
     <row r="63" spans="1:9" ht="25" thickBot="1">
       <c r="A63" s="136"/>
-      <c r="B63" s="151"/>
-      <c r="C63" s="151"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
       <c r="D63" s="136"/>
       <c r="E63" s="136"/>
       <c r="F63" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G63" s="160"/>
+      <c r="G63" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -7464,6 +7452,18 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C38:C47"/>
     <mergeCell ref="B38:B47"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7846,7 +7846,7 @@
       <c r="E24" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="158" t="s">
+      <c r="F24" s="155" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       <c r="E25" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F25" s="159"/>
+      <c r="F25" s="156"/>
     </row>
     <row r="26" spans="1:6" ht="25" thickBot="1">
       <c r="A26" s="166"/>
@@ -7868,7 +7868,7 @@
       <c r="E26" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="157"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -7937,17 +7937,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="185" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="181" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="183" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="47" t="s">
@@ -7955,19 +7955,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="179"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="182"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" thickBot="1">
-      <c r="A4" s="179"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="123" t="s">
         <v>500</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1">
-      <c r="A5" s="179"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="123"/>
       <c r="C5" s="135" t="s">
         <v>414</v>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="A6" s="179"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="123"/>
       <c r="C6" s="136"/>
       <c r="D6" s="104" t="s">
@@ -8017,15 +8017,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63" customHeight="1">
-      <c r="A7" s="179"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="149" t="s">
+      <c r="A7" s="186"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="181" t="s">
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="183" t="s">
         <v>501</v>
       </c>
       <c r="H7" s="47" t="s">
@@ -8033,21 +8033,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="179"/>
-      <c r="B8" s="157"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="182"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="184"/>
       <c r="H8" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="179"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="123"/>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="147" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="104" t="s">
@@ -8063,9 +8063,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="179"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="123"/>
-      <c r="C10" s="150"/>
+      <c r="C10" s="148"/>
       <c r="D10" s="120" t="s">
         <v>417</v>
       </c>
@@ -8079,10 +8079,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="179"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="123"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="146" t="s">
+      <c r="C11" s="148"/>
+      <c r="D11" s="159" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="110" t="s">
@@ -8097,15 +8097,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="179"/>
-      <c r="B12" s="157"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="160"/>
       <c r="E12" s="135" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="149"/>
-      <c r="G12" s="181" t="s">
+      <c r="F12" s="147"/>
+      <c r="G12" s="183" t="s">
         <v>503</v>
       </c>
       <c r="H12" s="47" t="s">
@@ -8113,22 +8113,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="179"/>
-      <c r="B13" s="157"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="147"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="136"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="182"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="179"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="123"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="148"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="104" t="s">
         <v>451</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37" thickBot="1">
-      <c r="A15" s="179"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="123"/>
       <c r="C15" s="104" t="s">
         <v>504</v>
@@ -8157,7 +8157,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="179"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="123"/>
       <c r="C16" s="123" t="s">
         <v>506</v>
@@ -8173,12 +8173,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" thickBot="1">
-      <c r="A17" s="179"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="127"/>
       <c r="C17" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="159" t="s">
         <v>507</v>
       </c>
       <c r="E17" s="104" t="s">
@@ -8193,10 +8193,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" thickBot="1">
-      <c r="A18" s="179"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="127"/>
       <c r="C18" s="118"/>
-      <c r="D18" s="147"/>
+      <c r="D18" s="160"/>
       <c r="E18" s="110" t="s">
         <v>134</v>
       </c>
@@ -8209,10 +8209,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" thickBot="1">
-      <c r="A19" s="179"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="127"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="147"/>
+      <c r="D19" s="160"/>
       <c r="E19" s="104" t="s">
         <v>512</v>
       </c>
@@ -8225,10 +8225,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" thickBot="1">
-      <c r="A20" s="179"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="127"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="147"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="110" t="s">
         <v>135</v>
       </c>
@@ -8241,10 +8241,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" thickBot="1">
-      <c r="A21" s="179"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="127"/>
       <c r="C21" s="118"/>
-      <c r="D21" s="147"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="104" t="s">
         <v>515</v>
       </c>
@@ -8257,10 +8257,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" thickBot="1">
-      <c r="A22" s="179"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="127"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="147"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="110" t="s">
         <v>136</v>
       </c>
@@ -8273,10 +8273,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A23" s="179"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="127"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="147"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="104" t="s">
         <v>518</v>
       </c>
@@ -8289,10 +8289,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" thickBot="1">
-      <c r="A24" s="179"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="127"/>
       <c r="C24" s="118"/>
-      <c r="D24" s="153"/>
+      <c r="D24" s="162"/>
       <c r="E24" s="110" t="s">
         <v>137</v>
       </c>
@@ -8305,10 +8305,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="179"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="127"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="184" t="s">
+      <c r="D25" s="179" t="s">
         <v>521</v>
       </c>
       <c r="E25" s="104" t="s">
@@ -8323,10 +8323,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1">
-      <c r="A26" s="179"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="127"/>
       <c r="C26" s="118"/>
-      <c r="D26" s="147"/>
+      <c r="D26" s="160"/>
       <c r="E26" s="110" t="s">
         <v>138</v>
       </c>
@@ -8339,11 +8339,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" thickBot="1">
-      <c r="A27" s="179"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="127"/>
       <c r="C27" s="118"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="149" t="s">
+      <c r="D27" s="160"/>
+      <c r="E27" s="147" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="104" t="s">
@@ -8357,11 +8357,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="179"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="127"/>
       <c r="C28" s="118"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="150"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="104" t="s">
         <v>428</v>
       </c>
@@ -8373,11 +8373,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" thickBot="1">
-      <c r="A29" s="179"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="127"/>
       <c r="C29" s="118"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="151"/>
+      <c r="D29" s="161"/>
+      <c r="E29" s="158"/>
       <c r="F29" s="104" t="s">
         <v>430</v>
       </c>
@@ -8389,10 +8389,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" thickBot="1">
-      <c r="A30" s="179"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="127"/>
       <c r="C30" s="118"/>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="159" t="s">
         <v>528</v>
       </c>
       <c r="E30" s="104" t="s">
@@ -8407,10 +8407,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" thickBot="1">
-      <c r="A31" s="179"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="127"/>
       <c r="C31" s="118"/>
-      <c r="D31" s="147"/>
+      <c r="D31" s="160"/>
       <c r="E31" s="110" t="s">
         <v>397</v>
       </c>
@@ -8423,10 +8423,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" thickBot="1">
-      <c r="A32" s="179"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="127"/>
       <c r="C32" s="118"/>
-      <c r="D32" s="147"/>
+      <c r="D32" s="160"/>
       <c r="E32" s="104" t="s">
         <v>533</v>
       </c>
@@ -8439,10 +8439,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="25" thickBot="1">
-      <c r="A33" s="179"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="127"/>
       <c r="C33" s="118"/>
-      <c r="D33" s="147"/>
+      <c r="D33" s="160"/>
       <c r="E33" s="110" t="s">
         <v>398</v>
       </c>
@@ -8455,10 +8455,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="25" thickBot="1">
-      <c r="A34" s="179"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="127"/>
       <c r="C34" s="118"/>
-      <c r="D34" s="147"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="104" t="s">
         <v>536</v>
       </c>
@@ -8471,10 +8471,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" thickBot="1">
-      <c r="A35" s="179"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="127"/>
       <c r="C35" s="118"/>
-      <c r="D35" s="147"/>
+      <c r="D35" s="160"/>
       <c r="E35" s="110" t="s">
         <v>399</v>
       </c>
@@ -8487,10 +8487,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25" thickBot="1">
-      <c r="A36" s="179"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="127"/>
       <c r="C36" s="118"/>
-      <c r="D36" s="147"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="104" t="s">
         <v>539</v>
       </c>
@@ -8503,10 +8503,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="25" thickBot="1">
-      <c r="A37" s="179"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="127"/>
       <c r="C37" s="118"/>
-      <c r="D37" s="148"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="110" t="s">
         <v>400</v>
       </c>
@@ -8519,10 +8519,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="179"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="127"/>
       <c r="C38" s="118"/>
-      <c r="D38" s="146" t="s">
+      <c r="D38" s="159" t="s">
         <v>542</v>
       </c>
       <c r="E38" s="104" t="s">
@@ -8537,10 +8537,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="25" thickBot="1">
-      <c r="A39" s="179"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="127"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="147"/>
+      <c r="D39" s="160"/>
       <c r="E39" s="110" t="s">
         <v>138</v>
       </c>
@@ -8553,11 +8553,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="179"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="127"/>
       <c r="C40" s="118"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="185" t="s">
+      <c r="D40" s="160"/>
+      <c r="E40" s="180" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="104" t="s">
@@ -8571,11 +8571,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="37" thickBot="1">
-      <c r="A41" s="179"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="127"/>
       <c r="C41" s="118"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="186"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="181"/>
       <c r="F41" s="104" t="s">
         <v>543</v>
       </c>
@@ -8587,11 +8587,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="179"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="127"/>
       <c r="C42" s="118"/>
-      <c r="D42" s="148"/>
-      <c r="E42" s="187"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="182"/>
       <c r="F42" s="104" t="s">
         <v>545</v>
       </c>
@@ -8603,10 +8603,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="37" thickBot="1">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="127"/>
       <c r="C43" s="118"/>
-      <c r="D43" s="146" t="s">
+      <c r="D43" s="159" t="s">
         <v>546</v>
       </c>
       <c r="E43" s="104" t="s">
@@ -8621,10 +8621,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="37" thickBot="1">
-      <c r="A44" s="179"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="127"/>
       <c r="C44" s="118"/>
-      <c r="D44" s="147"/>
+      <c r="D44" s="160"/>
       <c r="E44" s="104" t="s">
         <v>549</v>
       </c>
@@ -8637,10 +8637,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="25" thickBot="1">
-      <c r="A45" s="179"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="127"/>
       <c r="C45" s="118"/>
-      <c r="D45" s="147"/>
+      <c r="D45" s="160"/>
       <c r="E45" s="135" t="s">
         <v>551</v>
       </c>
@@ -8655,11 +8655,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" thickBot="1">
-      <c r="A46" s="179"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="127"/>
       <c r="C46" s="118"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="157"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="104" t="s">
         <v>428</v>
       </c>
@@ -8671,11 +8671,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="25" thickBot="1">
-      <c r="A47" s="179"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="127"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="157"/>
+      <c r="D47" s="160"/>
+      <c r="E47" s="146"/>
       <c r="F47" s="104" t="s">
         <v>430</v>
       </c>
@@ -8687,10 +8687,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" thickBot="1">
-      <c r="A48" s="179"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="127"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="147"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="136"/>
       <c r="F48" s="104" t="s">
         <v>472</v>
@@ -8703,10 +8703,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" thickBot="1">
-      <c r="A49" s="179"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="127"/>
       <c r="C49" s="118"/>
-      <c r="D49" s="147"/>
+      <c r="D49" s="160"/>
       <c r="E49" s="135" t="s">
         <v>556</v>
       </c>
@@ -8721,11 +8721,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="25" thickBot="1">
-      <c r="A50" s="179"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="127"/>
       <c r="C50" s="118"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="157"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="146"/>
       <c r="F50" s="104" t="s">
         <v>428</v>
       </c>
@@ -8737,11 +8737,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="25" thickBot="1">
-      <c r="A51" s="179"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="127"/>
       <c r="C51" s="118"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="157"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="146"/>
       <c r="F51" s="104" t="s">
         <v>430</v>
       </c>
@@ -8753,10 +8753,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1">
-      <c r="A52" s="179"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="127"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="147"/>
+      <c r="D52" s="160"/>
       <c r="E52" s="136"/>
       <c r="F52" s="104" t="s">
         <v>472</v>
@@ -8769,10 +8769,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="179"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="127"/>
       <c r="C53" s="118"/>
-      <c r="D53" s="147"/>
+      <c r="D53" s="160"/>
       <c r="E53" s="104" t="s">
         <v>561</v>
       </c>
@@ -8785,10 +8785,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" thickBot="1">
-      <c r="A54" s="179"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="127"/>
       <c r="C54" s="118"/>
-      <c r="D54" s="147"/>
+      <c r="D54" s="160"/>
       <c r="E54" s="104" t="s">
         <v>563</v>
       </c>
@@ -8801,10 +8801,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="25" thickBot="1">
-      <c r="A55" s="179"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="127"/>
       <c r="C55" s="118"/>
-      <c r="D55" s="147"/>
+      <c r="D55" s="160"/>
       <c r="E55" s="104" t="s">
         <v>565</v>
       </c>
@@ -8817,10 +8817,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" thickBot="1">
-      <c r="A56" s="179"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="127"/>
       <c r="C56" s="118"/>
-      <c r="D56" s="147"/>
+      <c r="D56" s="160"/>
       <c r="E56" s="104" t="s">
         <v>567</v>
       </c>
@@ -8833,10 +8833,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" thickBot="1">
-      <c r="A57" s="179"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="127"/>
       <c r="C57" s="118"/>
-      <c r="D57" s="148"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="104" t="s">
         <v>568</v>
       </c>
@@ -8849,10 +8849,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="37" thickBot="1">
-      <c r="A58" s="179"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="127"/>
       <c r="C58" s="118"/>
-      <c r="D58" s="146" t="s">
+      <c r="D58" s="159" t="s">
         <v>401</v>
       </c>
       <c r="E58" s="104" t="s">
@@ -8867,10 +8867,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="37" thickBot="1">
-      <c r="A59" s="179"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="127"/>
       <c r="C59" s="118"/>
-      <c r="D59" s="147"/>
+      <c r="D59" s="160"/>
       <c r="E59" s="123" t="s">
         <v>549</v>
       </c>
@@ -8883,10 +8883,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1">
-      <c r="A60" s="179"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="127"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="147"/>
+      <c r="D60" s="160"/>
       <c r="E60" s="115" t="s">
         <v>572</v>
       </c>
@@ -8901,10 +8901,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="37" thickBot="1">
-      <c r="A61" s="179"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="127"/>
       <c r="C61" s="118"/>
-      <c r="D61" s="147"/>
+      <c r="D61" s="160"/>
       <c r="E61" s="116"/>
       <c r="F61" s="104" t="s">
         <v>543</v>
@@ -8917,10 +8917,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" thickBot="1">
-      <c r="A62" s="179"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="127"/>
       <c r="C62" s="118"/>
-      <c r="D62" s="147"/>
+      <c r="D62" s="160"/>
       <c r="E62" s="111"/>
       <c r="F62" s="104" t="s">
         <v>545</v>
@@ -8933,10 +8933,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" thickBot="1">
-      <c r="A63" s="179"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="127"/>
       <c r="C63" s="118"/>
-      <c r="D63" s="147"/>
+      <c r="D63" s="160"/>
       <c r="E63" s="116" t="s">
         <v>576</v>
       </c>
@@ -8951,10 +8951,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="37" thickBot="1">
-      <c r="A64" s="179"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="127"/>
       <c r="C64" s="118"/>
-      <c r="D64" s="147"/>
+      <c r="D64" s="160"/>
       <c r="E64" s="116"/>
       <c r="F64" s="104" t="s">
         <v>543</v>
@@ -8967,10 +8967,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" thickBot="1">
-      <c r="A65" s="179"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="127"/>
       <c r="C65" s="118"/>
-      <c r="D65" s="147"/>
+      <c r="D65" s="160"/>
       <c r="E65" s="111"/>
       <c r="F65" s="104" t="s">
         <v>545</v>
@@ -8983,10 +8983,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" thickBot="1">
-      <c r="A66" s="179"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="127"/>
       <c r="C66" s="118"/>
-      <c r="D66" s="147"/>
+      <c r="D66" s="160"/>
       <c r="E66" s="104" t="s">
         <v>579</v>
       </c>
@@ -8999,10 +8999,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" thickBot="1">
-      <c r="A67" s="179"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="127"/>
       <c r="C67" s="118"/>
-      <c r="D67" s="148"/>
+      <c r="D67" s="161"/>
       <c r="E67" s="104" t="s">
         <v>581</v>
       </c>
@@ -9015,10 +9015,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" thickBot="1">
-      <c r="A68" s="179"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="127"/>
       <c r="C68" s="118"/>
-      <c r="D68" s="146" t="s">
+      <c r="D68" s="159" t="s">
         <v>583</v>
       </c>
       <c r="E68" s="135" t="s">
@@ -9035,10 +9035,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="37" thickBot="1">
-      <c r="A69" s="179"/>
+      <c r="A69" s="186"/>
       <c r="B69" s="127"/>
       <c r="C69" s="118"/>
-      <c r="D69" s="147"/>
+      <c r="D69" s="160"/>
       <c r="E69" s="136"/>
       <c r="F69" s="104" t="s">
         <v>586</v>
@@ -9051,11 +9051,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="37" thickBot="1">
-      <c r="A70" s="179"/>
+      <c r="A70" s="186"/>
       <c r="B70" s="127"/>
       <c r="C70" s="118"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="149" t="s">
+      <c r="D70" s="160"/>
+      <c r="E70" s="147" t="s">
         <v>141</v>
       </c>
       <c r="F70" s="104" t="s">
@@ -9069,11 +9069,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="37" thickBot="1">
-      <c r="A71" s="179"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="127"/>
       <c r="C71" s="118"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="150"/>
+      <c r="D71" s="160"/>
+      <c r="E71" s="148"/>
       <c r="F71" s="104" t="s">
         <v>428</v>
       </c>
@@ -9085,11 +9085,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" thickBot="1">
-      <c r="A72" s="179"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="127"/>
       <c r="C72" s="118"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="150"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="148"/>
       <c r="F72" s="104" t="s">
         <v>430</v>
       </c>
@@ -9101,11 +9101,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" thickBot="1">
-      <c r="A73" s="179"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="127"/>
       <c r="C73" s="118"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="151"/>
+      <c r="D73" s="160"/>
+      <c r="E73" s="158"/>
       <c r="F73" s="104" t="s">
         <v>472</v>
       </c>
@@ -9117,11 +9117,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="37" thickBot="1">
-      <c r="A74" s="179"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="127"/>
       <c r="C74" s="118"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="149" t="s">
+      <c r="D74" s="160"/>
+      <c r="E74" s="147" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="104" t="s">
@@ -9135,11 +9135,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="37" thickBot="1">
-      <c r="A75" s="179"/>
+      <c r="A75" s="186"/>
       <c r="B75" s="127"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="150"/>
+      <c r="D75" s="160"/>
+      <c r="E75" s="148"/>
       <c r="F75" s="104" t="s">
         <v>428</v>
       </c>
@@ -9151,11 +9151,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="25" thickBot="1">
-      <c r="A76" s="179"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="127"/>
       <c r="C76" s="118"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="150"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="148"/>
       <c r="F76" s="104" t="s">
         <v>430</v>
       </c>
@@ -9167,11 +9167,11 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" thickBot="1">
-      <c r="A77" s="179"/>
+      <c r="A77" s="186"/>
       <c r="B77" s="127"/>
       <c r="C77" s="118"/>
-      <c r="D77" s="147"/>
-      <c r="E77" s="151"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="158"/>
       <c r="F77" s="104" t="s">
         <v>472</v>
       </c>
@@ -9183,10 +9183,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37" thickBot="1">
-      <c r="A78" s="179"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="127"/>
       <c r="C78" s="118"/>
-      <c r="D78" s="147"/>
+      <c r="D78" s="160"/>
       <c r="E78" s="104" t="s">
         <v>593</v>
       </c>
@@ -9199,10 +9199,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="37" thickBot="1">
-      <c r="A79" s="179"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="127"/>
       <c r="C79" s="118"/>
-      <c r="D79" s="147"/>
+      <c r="D79" s="160"/>
       <c r="E79" s="104" t="s">
         <v>563</v>
       </c>
@@ -9215,10 +9215,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="37" thickBot="1">
-      <c r="A80" s="179"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="127"/>
       <c r="C80" s="118"/>
-      <c r="D80" s="147"/>
+      <c r="D80" s="160"/>
       <c r="E80" s="104" t="s">
         <v>565</v>
       </c>
@@ -9231,10 +9231,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="37" thickBot="1">
-      <c r="A81" s="179"/>
+      <c r="A81" s="186"/>
       <c r="B81" s="127"/>
       <c r="C81" s="118"/>
-      <c r="D81" s="148"/>
+      <c r="D81" s="161"/>
       <c r="E81" s="104" t="s">
         <v>598</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" thickBot="1">
-      <c r="A82" s="179"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="123"/>
       <c r="C82" s="128" t="s">
         <v>143</v>
@@ -9263,9 +9263,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="61" thickBot="1">
-      <c r="A83" s="179"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="123"/>
-      <c r="C83" s="154" t="s">
+      <c r="C83" s="163" t="s">
         <v>467</v>
       </c>
       <c r="D83" s="120" t="s">
@@ -9281,10 +9281,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" thickBot="1">
-      <c r="A84" s="179"/>
+      <c r="A84" s="186"/>
       <c r="B84" s="123"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="146" t="s">
+      <c r="C84" s="153"/>
+      <c r="D84" s="159" t="s">
         <v>603</v>
       </c>
       <c r="E84" s="104" t="s">
@@ -9299,10 +9299,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="37" thickBot="1">
-      <c r="A85" s="179"/>
+      <c r="A85" s="186"/>
       <c r="B85" s="123"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="147"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="160"/>
       <c r="E85" s="104" t="s">
         <v>504</v>
       </c>
@@ -9315,10 +9315,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A86" s="179"/>
+      <c r="A86" s="186"/>
       <c r="B86" s="123"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="148"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="161"/>
       <c r="E86" s="104" t="s">
         <v>545</v>
       </c>
@@ -9331,7 +9331,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="25" thickBot="1">
-      <c r="A87" s="179"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="123"/>
       <c r="C87" s="103" t="s">
         <v>482</v>
@@ -9347,7 +9347,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A88" s="179"/>
+      <c r="A88" s="186"/>
       <c r="B88" s="123"/>
       <c r="C88" s="104" t="s">
         <v>545</v>
@@ -9363,35 +9363,63 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="179"/>
-      <c r="B89" s="157"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="146"/>
       <c r="C89" s="135" t="s">
         <v>608</v>
       </c>
-      <c r="D89" s="149"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="135"/>
-      <c r="F89" s="149"/>
+      <c r="F89" s="147"/>
       <c r="G89" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="H89" s="158" t="s">
+      <c r="H89" s="155" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" thickBot="1">
-      <c r="A90" s="180"/>
+      <c r="A90" s="187"/>
       <c r="B90" s="136"/>
       <c r="C90" s="136"/>
-      <c r="D90" s="151"/>
+      <c r="D90" s="158"/>
       <c r="E90" s="136"/>
-      <c r="F90" s="151"/>
+      <c r="F90" s="158"/>
       <c r="G90" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="H90" s="160"/>
+      <c r="H90" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="A2:A90"/>
+    <mergeCell ref="D30:D37"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D57"/>
+    <mergeCell ref="D58:D67"/>
+    <mergeCell ref="D68:D81"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="E74:E77"/>
     <mergeCell ref="C83:C86"/>
     <mergeCell ref="D84:D86"/>
@@ -9406,34 +9434,6 @@
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A90"/>
-    <mergeCell ref="D30:D37"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="D43:D57"/>
-    <mergeCell ref="D58:D67"/>
-    <mergeCell ref="D68:D81"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="163" t="s">
         <v>474</v>
       </c>
       <c r="B2" s="105" t="s">
@@ -9490,7 +9490,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="155"/>
+      <c r="A3" s="153"/>
       <c r="B3" s="120" t="s">
         <v>417</v>
       </c>
@@ -9503,8 +9503,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="153"/>
+      <c r="B4" s="159" t="s">
         <v>448</v>
       </c>
       <c r="C4" s="119" t="s">
@@ -9518,8 +9518,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" thickBot="1">
-      <c r="A5" s="155"/>
-      <c r="B5" s="147"/>
+      <c r="A5" s="153"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="106" t="s">
         <v>450</v>
       </c>
@@ -9531,8 +9531,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" thickBot="1">
-      <c r="A6" s="155"/>
-      <c r="B6" s="148"/>
+      <c r="A6" s="153"/>
+      <c r="B6" s="161"/>
       <c r="C6" s="106" t="s">
         <v>451</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="37" thickBot="1">
-      <c r="A7" s="155"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="124" t="s">
         <v>212</v>
       </c>
@@ -9557,7 +9557,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="49" thickBot="1">
-      <c r="A8" s="155"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="106" t="s">
         <v>614</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" thickBot="1">
-      <c r="A9" s="155"/>
+      <c r="A9" s="153"/>
       <c r="B9" s="106" t="s">
         <v>616</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A10" s="155"/>
+      <c r="A10" s="153"/>
       <c r="B10" s="106" t="s">
         <v>618</v>
       </c>
@@ -9596,7 +9596,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="37" thickBot="1">
-      <c r="A11" s="155"/>
+      <c r="A11" s="153"/>
       <c r="B11" s="124" t="s">
         <v>211</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="37" thickBot="1">
-      <c r="A12" s="155"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="124" t="s">
         <v>210</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="97" thickBot="1">
-      <c r="A13" s="156"/>
+      <c r="A13" s="154"/>
       <c r="B13" s="117" t="s">
         <v>321</v>
       </c>
@@ -9659,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
@@ -9676,10 +9676,10 @@
     <row r="1" spans="1:3" ht="15" thickBot="1"/>
     <row r="2" spans="1:3" ht="16" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="189" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="192"/>
+      <c r="C2" s="190"/>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1">
       <c r="A3"/>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="189" t="s">
+      <c r="B10" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="190"/>
+      <c r="C10" s="192"/>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11"/>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
       <c r="A23"/>
-      <c r="B23" s="189" t="s">
+      <c r="B23" s="191" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="190"/>
+      <c r="C23" s="192"/>
     </row>
     <row r="24" spans="1:3" ht="16" thickBot="1">
       <c r="A24"/>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" thickBot="1">
       <c r="A29"/>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="191" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="190"/>
+      <c r="C29" s="192"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
       <c r="A30"/>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1">
       <c r="A35"/>
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="190"/>
+      <c r="C35" s="192"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
       <c r="A36"/>
@@ -9975,10 +9975,10 @@
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1">
       <c r="A41"/>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="192"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1">
       <c r="A42"/>
@@ -10019,10 +10019,10 @@
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1">
       <c r="A47"/>
-      <c r="B47" s="189" t="s">
+      <c r="B47" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="190"/>
+      <c r="C47" s="192"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1">
       <c r="A48"/>
@@ -10099,10 +10099,10 @@
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57"/>
-      <c r="B57" s="189" t="s">
+      <c r="B57" s="191" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="190"/>
+      <c r="C57" s="192"/>
       <c r="D57" s="85"/>
       <c r="E57" s="86"/>
     </row>
@@ -10280,10 +10280,10 @@
     </row>
     <row r="78" spans="1:3" ht="16" thickBot="1">
       <c r="A78"/>
-      <c r="B78" s="189" t="s">
+      <c r="B78" s="191" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="190"/>
+      <c r="C78" s="192"/>
     </row>
     <row r="79" spans="1:3" ht="16" thickBot="1">
       <c r="A79"/>
@@ -10450,10 +10450,10 @@
     </row>
     <row r="98" spans="1:4" ht="16" thickBot="1">
       <c r="A98"/>
-      <c r="B98" s="189" t="s">
+      <c r="B98" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="190"/>
+      <c r="C98" s="192"/>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1">
       <c r="A99"/>
@@ -10524,10 +10524,10 @@
     </row>
     <row r="106" spans="1:4" ht="16" thickBot="1">
       <c r="A106"/>
-      <c r="B106" s="189" t="s">
+      <c r="B106" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="190"/>
+      <c r="C106" s="192"/>
     </row>
     <row r="107" spans="1:4" ht="16" thickBot="1">
       <c r="A107"/>
@@ -10607,10 +10607,10 @@
     </row>
     <row r="116" spans="1:3" ht="16" thickBot="1">
       <c r="A116"/>
-      <c r="B116" s="189" t="s">
+      <c r="B116" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="190"/>
+      <c r="C116" s="192"/>
     </row>
     <row r="117" spans="1:3" ht="16" thickBot="1">
       <c r="A117"/>
@@ -10642,10 +10642,10 @@
     </row>
     <row r="121" spans="1:3" ht="16" thickBot="1">
       <c r="A121"/>
-      <c r="B121" s="189" t="s">
+      <c r="B121" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="190"/>
+      <c r="C121" s="192"/>
     </row>
     <row r="122" spans="1:3" ht="16" thickBot="1">
       <c r="A122"/>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="127" spans="1:3" ht="16" thickBot="1">
       <c r="A127"/>
-      <c r="B127" s="189" t="s">
+      <c r="B127" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="190"/>
+      <c r="C127" s="192"/>
     </row>
     <row r="128" spans="1:3" ht="16" thickBot="1">
       <c r="A128"/>
@@ -10719,10 +10719,10 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1">
-      <c r="B132" s="189" t="s">
+      <c r="B132" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="190"/>
+      <c r="C132" s="192"/>
     </row>
     <row r="133" spans="1:3" ht="16" thickBot="1">
       <c r="B133"/>
@@ -10765,10 +10765,10 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1">
-      <c r="B139" s="189" t="s">
+      <c r="B139" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="190"/>
+      <c r="C139" s="192"/>
     </row>
     <row r="140" spans="1:3" ht="16" thickBot="1">
       <c r="B140"/>
@@ -10811,10 +10811,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:3" ht="15" thickBot="1">
-      <c r="B146" s="189" t="s">
+      <c r="B146" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="190"/>
+      <c r="C146" s="192"/>
     </row>
     <row r="147" spans="2:3" ht="16" thickBot="1">
       <c r="B147"/>
@@ -10961,10 +10961,10 @@
       <c r="C165" s="76"/>
     </row>
     <row r="166" spans="2:3" ht="15" thickBot="1">
-      <c r="B166" s="189" t="s">
+      <c r="B166" s="191" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="190"/>
+      <c r="C166" s="192"/>
     </row>
     <row r="167" spans="2:3" ht="16" thickBot="1">
       <c r="B167"/>
@@ -11071,10 +11071,10 @@
       <c r="C180" s="79"/>
     </row>
     <row r="181" spans="2:3" ht="15" thickBot="1">
-      <c r="B181" s="189" t="s">
+      <c r="B181" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="190"/>
+      <c r="C181" s="192"/>
     </row>
     <row r="182" spans="2:3" ht="15" thickBot="1">
       <c r="B182" s="70"/>
@@ -11109,10 +11109,10 @@
       <c r="C186"/>
     </row>
     <row r="187" spans="2:3" ht="15" thickBot="1">
-      <c r="B187" s="189" t="s">
+      <c r="B187" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="C187" s="190"/>
+      <c r="C187" s="192"/>
     </row>
     <row r="188" spans="2:3" ht="16" thickBot="1">
       <c r="B188"/>
@@ -11144,6 +11144,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B10:C10"/>
@@ -11158,13 +11165,6 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B181:C181"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -11251,62 +11251,62 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="34"/>
-      <c r="B1" s="205" t="s">
+      <c r="B1" s="194" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="208" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="198" t="s">
+      <c r="C3" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="198" t="s">
+      <c r="D3" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="198" t="s">
+      <c r="F3" s="208" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="195" t="s">
+      <c r="H3" s="205" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="197"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="207"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" thickBot="1">
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
       <c r="H4" s="33" t="s">
         <v>242</v>
       </c>
@@ -11318,17 +11318,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="B5" s="207" t="s">
+      <c r="B5" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="208"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="198"/>
     </row>
     <row r="6" spans="1:11" ht="53" thickBot="1">
       <c r="B6" s="32" t="s">
@@ -11349,7 +11349,7 @@
       <c r="G6" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="204" t="s">
+      <c r="H6" s="202" t="s">
         <v>223</v>
       </c>
       <c r="I6" s="203" t="s">
@@ -11379,23 +11379,23 @@
       <c r="G7" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="204"/>
+      <c r="H7" s="202"/>
       <c r="I7" s="203"/>
       <c r="J7" s="203"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="196" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="209"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="66" thickBot="1">
@@ -11420,10 +11420,10 @@
       <c r="H9" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="204" t="s">
+      <c r="I9" s="202" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="204" t="s">
+      <c r="J9" s="202" t="s">
         <v>229</v>
       </c>
       <c r="K9" s="29"/>
@@ -11448,22 +11448,22 @@
         <v>266</v>
       </c>
       <c r="H10" s="203"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
+      <c r="I10" s="202"/>
+      <c r="J10" s="202"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="199" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="201"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="131" thickBot="1">
@@ -11485,7 +11485,7 @@
       <c r="G12" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="204" t="s">
+      <c r="H12" s="202" t="s">
         <v>223</v>
       </c>
       <c r="I12" s="203" t="s">
@@ -11515,7 +11515,7 @@
       <c r="G13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="204"/>
+      <c r="H13" s="202"/>
       <c r="I13" s="203"/>
       <c r="J13" s="203"/>
       <c r="K13" s="29"/>
@@ -11526,109 +11526,98 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="211" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="202" t="s">
+      <c r="B17" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="202"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="204" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="194"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
+      <c r="J19" s="210"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="210" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="210"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="204" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="194"/>
+      <c r="C21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="204"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="204"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="194"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
+      <c r="H22" s="204"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="H3:J3"/>
@@ -11645,6 +11634,17 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/DsRegistroVeriFactu.xlsx
+++ b/docs/DsRegistroVeriFactu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01852FF-DAF5-394B-AB39-C9FF3C5931A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A676B8D-211E-4842-9788-2FED8894279B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="620" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="620" windowWidth="42080" windowHeight="23800" tabRatio="942" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0)Control de cambios" sheetId="19" r:id="rId1"/>
@@ -4712,14 +4712,50 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4727,45 +4763,9 @@
     <xf numFmtId="0" fontId="34" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4808,6 +4808,21 @@
     <xf numFmtId="0" fontId="34" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4823,39 +4838,57 @@
     <xf numFmtId="0" fontId="33" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4880,38 +4913,8 @@
     <xf numFmtId="0" fontId="25" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4920,9 +4923,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5623,7 +5623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -5640,74 +5640,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="205" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="2:11" ht="16" thickBot="1">
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="2:11" ht="16" thickBot="1">
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="214" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="214"/>
-      <c r="G3" s="214"/>
-      <c r="H3" s="214"/>
-      <c r="I3" s="214"/>
-      <c r="J3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="216"/>
     </row>
     <row r="4" spans="2:11" ht="16" thickBot="1">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="198" t="s">
         <v>249</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="208" t="s">
+      <c r="D4" s="198" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="208" t="s">
+      <c r="E4" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="208" t="s">
+      <c r="F4" s="198" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="208" t="s">
+      <c r="G4" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="H4" s="205" t="s">
+      <c r="H4" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="I4" s="206"/>
-      <c r="J4" s="207"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
     </row>
     <row r="5" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="33" t="s">
         <v>242</v>
       </c>
@@ -5740,10 +5740,10 @@
       <c r="H6" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="202" t="s">
+      <c r="I6" s="204" t="s">
         <v>256</v>
       </c>
-      <c r="J6" s="202" t="s">
+      <c r="J6" s="204" t="s">
         <v>255</v>
       </c>
       <c r="K6" s="29"/>
@@ -5768,22 +5768,22 @@
         <v>278</v>
       </c>
       <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="2:11" ht="16" thickBot="1">
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="214" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="215"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="215"/>
+      <c r="I8" s="215"/>
+      <c r="J8" s="216"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="2:11" ht="92" thickBot="1">
@@ -5805,13 +5805,13 @@
       <c r="G9" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="202" t="s">
+      <c r="H9" s="204" t="s">
         <v>253</v>
       </c>
       <c r="I9" s="203" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="216" t="s">
+      <c r="J9" s="213" t="s">
         <v>252</v>
       </c>
       <c r="K9" s="29"/>
@@ -5835,9 +5835,9 @@
       <c r="G10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="202"/>
+      <c r="H10" s="204"/>
       <c r="I10" s="203"/>
-      <c r="J10" s="216"/>
+      <c r="J10" s="213"/>
       <c r="K10" s="29"/>
     </row>
     <row r="12" spans="2:11">
@@ -5846,107 +5846,98 @@
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="211" t="s">
+      <c r="B13" s="201" t="s">
         <v>275</v>
       </c>
-      <c r="C13" s="211"/>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="212"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="212"/>
-      <c r="J14" s="212"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1">
-      <c r="B15" s="210" t="s">
+      <c r="B15" s="200" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="210"/>
-      <c r="D15" s="210"/>
-      <c r="E15" s="210"/>
-      <c r="F15" s="210"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="210"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="210"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1">
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="194" t="s">
         <v>283</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204"/>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204"/>
-      <c r="J16" s="204"/>
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="194" t="s">
         <v>284</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="204"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="194" t="s">
         <v>285</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="200" t="s">
         <v>287</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="B15:J15"/>
     <mergeCell ref="B8:J8"/>
@@ -5961,6 +5952,15 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6322,7 +6322,7 @@
   </sheetPr>
   <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6364,7 +6364,7 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="37" thickBot="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="157" t="s">
         <v>422</v>
       </c>
       <c r="B2" s="104" t="s">
@@ -6383,7 +6383,7 @@
       <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1">
-      <c r="A3" s="146"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="135" t="s">
         <v>426</v>
       </c>
@@ -6402,8 +6402,8 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
       <c r="C4" s="104" t="s">
         <v>428</v>
       </c>
@@ -6419,7 +6419,7 @@
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1">
-      <c r="A5" s="146"/>
+      <c r="A5" s="157"/>
       <c r="B5" s="136"/>
       <c r="C5" s="104" t="s">
         <v>430</v>
@@ -6436,7 +6436,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="49" thickBot="1">
-      <c r="A6" s="146"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="117" t="s">
         <v>685</v>
       </c>
@@ -6453,7 +6453,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1">
-      <c r="A7" s="146"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="104" t="s">
         <v>432</v>
       </c>
@@ -6470,7 +6470,7 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="61" thickBot="1">
-      <c r="A8" s="146"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="117" t="s">
         <v>195</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="73" thickBot="1">
-      <c r="A9" s="146"/>
+      <c r="A9" s="157"/>
       <c r="B9" s="117" t="s">
         <v>183</v>
       </c>
@@ -6504,7 +6504,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="25" thickBot="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="157"/>
       <c r="B10" s="104" t="s">
         <v>437</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="13" thickBot="1">
-      <c r="A11" s="146"/>
+      <c r="A11" s="157"/>
       <c r="B11" s="110" t="s">
         <v>2</v>
       </c>
@@ -6538,8 +6538,8 @@
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="149" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="135" t="s">
@@ -6559,9 +6559,9 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="146"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="157"/>
       <c r="D13" s="104" t="s">
         <v>428</v>
       </c>
@@ -6576,9 +6576,9 @@
       <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162"/>
       <c r="D14" s="104" t="s">
         <v>430</v>
       </c>
@@ -6593,11 +6593,11 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="151" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="163" t="s">
         <v>440</v>
       </c>
       <c r="D15" s="104" t="s">
@@ -6614,9 +6614,9 @@
       <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="153"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="104" t="s">
         <v>428</v>
       </c>
@@ -6631,9 +6631,9 @@
       <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:17" ht="15" thickBot="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="154"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="104" t="s">
         <v>430</v>
       </c>
@@ -6648,8 +6648,8 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:17" ht="15" thickBot="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="151" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="104" t="s">
@@ -6667,8 +6667,8 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="15" thickBot="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="148"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="104" t="s">
         <v>443</v>
       </c>
@@ -6684,8 +6684,8 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="13" thickBot="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="158"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="110" t="s">
         <v>6</v>
       </c>
@@ -6701,7 +6701,7 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13" thickBot="1">
-      <c r="A21" s="146"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="110" t="s">
         <v>7</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="15" thickBot="1">
-      <c r="A22" s="146"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="104" t="s">
         <v>444</v>
       </c>
@@ -6735,7 +6735,7 @@
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:17" ht="25" thickBot="1">
-      <c r="A23" s="146"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="119" t="s">
         <v>207</v>
       </c>
@@ -6752,7 +6752,7 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="25" thickBot="1">
-      <c r="A24" s="146"/>
+      <c r="A24" s="157"/>
       <c r="B24" s="119" t="s">
         <v>213</v>
       </c>
@@ -6777,7 +6777,7 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="37" thickBot="1">
-      <c r="A25" s="146"/>
+      <c r="A25" s="157"/>
       <c r="B25" s="110" t="s">
         <v>8</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="25" thickBot="1">
-      <c r="A26" s="146"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="119" t="s">
         <v>202</v>
       </c>
@@ -6811,8 +6811,8 @@
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="147" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="149" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="104" t="s">
@@ -6830,8 +6830,8 @@
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="148"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="120" t="s">
         <v>417</v>
       </c>
@@ -6847,9 +6847,9 @@
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:17" ht="25" thickBot="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="159" t="s">
+      <c r="A29" s="157"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="146" t="s">
         <v>448</v>
       </c>
       <c r="D29" s="117" t="s">
@@ -6866,9 +6866,9 @@
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="160"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="104" t="s">
         <v>450</v>
       </c>
@@ -6883,9 +6883,9 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:17" ht="15" thickBot="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="161"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="104" t="s">
         <v>451</v>
       </c>
@@ -6900,8 +6900,8 @@
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="25" thickBot="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="147" t="s">
+      <c r="A32" s="157"/>
+      <c r="B32" s="149" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="135" t="s">
@@ -6921,9 +6921,9 @@
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="25" thickBot="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="146"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="120" t="s">
         <v>417</v>
       </c>
@@ -6938,10 +6938,10 @@
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="25" thickBot="1">
-      <c r="A34" s="146"/>
-      <c r="B34" s="148"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="159" t="s">
+      <c r="A34" s="157"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="146" t="s">
         <v>448</v>
       </c>
       <c r="E34" s="110" t="s">
@@ -6957,10 +6957,10 @@
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="25" thickBot="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="148"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="160"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="104" t="s">
         <v>450</v>
       </c>
@@ -6974,10 +6974,10 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="25" thickBot="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="158"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="136"/>
-      <c r="D36" s="161"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="104" t="s">
         <v>451</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A37" s="146"/>
+      <c r="A37" s="157"/>
       <c r="B37" s="117" t="s">
         <v>12</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="37" thickBot="1">
-      <c r="A38" s="146"/>
+      <c r="A38" s="157"/>
       <c r="B38" s="135" t="s">
         <v>457</v>
       </c>
@@ -7029,9 +7029,9 @@
       <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="25" thickBot="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
+      <c r="A39" s="157"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
       <c r="D39" s="122" t="s">
         <v>656</v>
       </c>
@@ -7046,9 +7046,9 @@
       <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
       <c r="D40" s="120" t="s">
         <v>459</v>
       </c>
@@ -7063,9 +7063,9 @@
       <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
       <c r="D41" s="120" t="s">
         <v>460</v>
       </c>
@@ -7080,9 +7080,9 @@
       <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
+      <c r="A42" s="157"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="110" t="s">
         <v>13</v>
       </c>
@@ -7097,9 +7097,9 @@
       <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A43" s="146"/>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
       <c r="D43" s="104" t="s">
         <v>462</v>
       </c>
@@ -7114,9 +7114,9 @@
       <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="25" thickBot="1">
-      <c r="A44" s="146"/>
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
       <c r="D44" s="117" t="s">
         <v>14</v>
       </c>
@@ -7131,9 +7131,9 @@
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
       <c r="D45" s="110" t="s">
         <v>15</v>
       </c>
@@ -7148,9 +7148,9 @@
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A46" s="146"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
       <c r="D46" s="110" t="s">
         <v>16</v>
       </c>
@@ -7165,7 +7165,7 @@
       <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
-      <c r="A47" s="146"/>
+      <c r="A47" s="157"/>
       <c r="B47" s="136"/>
       <c r="C47" s="136"/>
       <c r="D47" s="110" t="s">
@@ -7182,7 +7182,7 @@
       <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A48" s="146"/>
+      <c r="A48" s="157"/>
       <c r="B48" s="104" t="s">
         <v>463</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="25" thickBot="1">
-      <c r="A49" s="146"/>
+      <c r="A49" s="157"/>
       <c r="B49" s="123" t="s">
         <v>465</v>
       </c>
@@ -7216,8 +7216,8 @@
       <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="61" thickBot="1">
-      <c r="A50" s="146"/>
-      <c r="B50" s="163" t="s">
+      <c r="A50" s="157"/>
+      <c r="B50" s="154" t="s">
         <v>467</v>
       </c>
       <c r="C50" s="120" t="s">
@@ -7235,9 +7235,9 @@
       <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="73" thickBot="1">
-      <c r="A51" s="146"/>
-      <c r="B51" s="153"/>
-      <c r="C51" s="159" t="s">
+      <c r="A51" s="157"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="146" t="s">
         <v>470</v>
       </c>
       <c r="D51" s="104" t="s">
@@ -7254,9 +7254,9 @@
       <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="25" thickBot="1">
-      <c r="A52" s="146"/>
-      <c r="B52" s="153"/>
-      <c r="C52" s="160"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="147"/>
       <c r="D52" s="104" t="s">
         <v>428</v>
       </c>
@@ -7271,9 +7271,9 @@
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="25" thickBot="1">
-      <c r="A53" s="146"/>
-      <c r="B53" s="153"/>
-      <c r="C53" s="160"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="147"/>
       <c r="D53" s="104" t="s">
         <v>430</v>
       </c>
@@ -7288,9 +7288,9 @@
       <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A54" s="146"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="162"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="153"/>
       <c r="D54" s="104" t="s">
         <v>472</v>
       </c>
@@ -7305,7 +7305,7 @@
       <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="25" thickBot="1">
-      <c r="A55" s="146"/>
+      <c r="A55" s="157"/>
       <c r="B55" s="125" t="s">
         <v>474</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="73" thickBot="1">
-      <c r="A56" s="146"/>
+      <c r="A56" s="157"/>
       <c r="B56" s="103" t="s">
         <v>476</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="49" thickBot="1">
-      <c r="A57" s="146"/>
+      <c r="A57" s="157"/>
       <c r="B57" s="119" t="s">
         <v>18</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A58" s="146"/>
+      <c r="A58" s="157"/>
       <c r="B58" s="124" t="s">
         <v>19</v>
       </c>
@@ -7371,7 +7371,7 @@
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="25" thickBot="1">
-      <c r="A59" s="146"/>
+      <c r="A59" s="157"/>
       <c r="B59" s="104" t="s">
         <v>482</v>
       </c>
@@ -7388,7 +7388,7 @@
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A60" s="146"/>
+      <c r="A60" s="157"/>
       <c r="B60" s="104" t="s">
         <v>472</v>
       </c>
@@ -7405,44 +7405,56 @@
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="12">
-      <c r="A61" s="146"/>
-      <c r="B61" s="147" t="s">
+      <c r="A61" s="157"/>
+      <c r="B61" s="149" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="147"/>
+      <c r="C61" s="149"/>
       <c r="D61" s="135"/>
       <c r="E61" s="135"/>
       <c r="F61" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="G61" s="155" t="s">
+      <c r="G61" s="158" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="12">
-      <c r="A62" s="146"/>
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
+      <c r="A62" s="157"/>
+      <c r="B62" s="150"/>
+      <c r="C62" s="150"/>
+      <c r="D62" s="157"/>
+      <c r="E62" s="157"/>
       <c r="F62" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="G62" s="156"/>
+      <c r="G62" s="159"/>
     </row>
     <row r="63" spans="1:9" ht="25" thickBot="1">
       <c r="A63" s="136"/>
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
+      <c r="B63" s="151"/>
+      <c r="C63" s="151"/>
       <c r="D63" s="136"/>
       <c r="E63" s="136"/>
       <c r="F63" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="G63" s="157"/>
+      <c r="G63" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
     <mergeCell ref="D34:D36"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -7452,18 +7464,6 @@
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="C38:C47"/>
     <mergeCell ref="B38:B47"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7482,8 +7482,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
@@ -7846,7 +7846,7 @@
       <c r="E24" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="F24" s="155" t="s">
+      <c r="F24" s="158" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7858,7 +7858,7 @@
       <c r="E25" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F25" s="156"/>
+      <c r="F25" s="159"/>
     </row>
     <row r="26" spans="1:6" ht="25" thickBot="1">
       <c r="A26" s="166"/>
@@ -7868,7 +7868,7 @@
       <c r="E26" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="F26" s="157"/>
+      <c r="F26" s="160"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -7937,17 +7937,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="178" t="s">
         <v>497</v>
       </c>
       <c r="B2" s="135" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="183" t="s">
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="181" t="s">
         <v>498</v>
       </c>
       <c r="H2" s="47" t="s">
@@ -7955,19 +7955,19 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1">
-      <c r="A3" s="186"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="136"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="184"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="182"/>
       <c r="H3" s="44" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="25" thickBot="1">
-      <c r="A4" s="186"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="123" t="s">
         <v>500</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="16" thickBot="1">
-      <c r="A5" s="186"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="123"/>
       <c r="C5" s="135" t="s">
         <v>414</v>
@@ -8001,7 +8001,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" thickBot="1">
-      <c r="A6" s="186"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="123"/>
       <c r="C6" s="136"/>
       <c r="D6" s="104" t="s">
@@ -8017,15 +8017,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="63" customHeight="1">
-      <c r="A7" s="186"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="147" t="s">
+      <c r="A7" s="179"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="183" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="181" t="s">
         <v>501</v>
       </c>
       <c r="H7" s="47" t="s">
@@ -8033,21 +8033,21 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="186"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="184"/>
+      <c r="A8" s="179"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="182"/>
       <c r="H8" s="44" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="186"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="123"/>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="149" t="s">
         <v>201</v>
       </c>
       <c r="D9" s="104" t="s">
@@ -8063,9 +8063,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="186"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="123"/>
-      <c r="C10" s="148"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="120" t="s">
         <v>417</v>
       </c>
@@ -8079,10 +8079,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="186"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="123"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="159" t="s">
+      <c r="C11" s="150"/>
+      <c r="D11" s="146" t="s">
         <v>448</v>
       </c>
       <c r="E11" s="110" t="s">
@@ -8097,15 +8097,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="160"/>
+      <c r="A12" s="179"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="135" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="183" t="s">
+      <c r="F12" s="149"/>
+      <c r="G12" s="181" t="s">
         <v>503</v>
       </c>
       <c r="H12" s="47" t="s">
@@ -8113,22 +8113,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="186"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="160"/>
+      <c r="A13" s="179"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="136"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="184"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="44" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="186"/>
+      <c r="A14" s="179"/>
       <c r="B14" s="123"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="161"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="148"/>
       <c r="E14" s="104" t="s">
         <v>451</v>
       </c>
@@ -8141,7 +8141,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="37" thickBot="1">
-      <c r="A15" s="186"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="123"/>
       <c r="C15" s="104" t="s">
         <v>504</v>
@@ -8157,7 +8157,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="186"/>
+      <c r="A16" s="179"/>
       <c r="B16" s="123"/>
       <c r="C16" s="123" t="s">
         <v>506</v>
@@ -8173,12 +8173,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="25" thickBot="1">
-      <c r="A17" s="186"/>
+      <c r="A17" s="179"/>
       <c r="B17" s="127"/>
       <c r="C17" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="159" t="s">
+      <c r="D17" s="146" t="s">
         <v>507</v>
       </c>
       <c r="E17" s="104" t="s">
@@ -8193,10 +8193,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="25" thickBot="1">
-      <c r="A18" s="186"/>
+      <c r="A18" s="179"/>
       <c r="B18" s="127"/>
       <c r="C18" s="118"/>
-      <c r="D18" s="160"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="110" t="s">
         <v>134</v>
       </c>
@@ -8209,10 +8209,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25" thickBot="1">
-      <c r="A19" s="186"/>
+      <c r="A19" s="179"/>
       <c r="B19" s="127"/>
       <c r="C19" s="118"/>
-      <c r="D19" s="160"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="104" t="s">
         <v>512</v>
       </c>
@@ -8225,10 +8225,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="25" thickBot="1">
-      <c r="A20" s="186"/>
+      <c r="A20" s="179"/>
       <c r="B20" s="127"/>
       <c r="C20" s="118"/>
-      <c r="D20" s="160"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="110" t="s">
         <v>135</v>
       </c>
@@ -8241,10 +8241,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="25" thickBot="1">
-      <c r="A21" s="186"/>
+      <c r="A21" s="179"/>
       <c r="B21" s="127"/>
       <c r="C21" s="118"/>
-      <c r="D21" s="160"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="104" t="s">
         <v>515</v>
       </c>
@@ -8257,10 +8257,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="25" thickBot="1">
-      <c r="A22" s="186"/>
+      <c r="A22" s="179"/>
       <c r="B22" s="127"/>
       <c r="C22" s="118"/>
-      <c r="D22" s="160"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="110" t="s">
         <v>136</v>
       </c>
@@ -8273,10 +8273,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A23" s="186"/>
+      <c r="A23" s="179"/>
       <c r="B23" s="127"/>
       <c r="C23" s="118"/>
-      <c r="D23" s="160"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="104" t="s">
         <v>518</v>
       </c>
@@ -8289,10 +8289,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="25" thickBot="1">
-      <c r="A24" s="186"/>
+      <c r="A24" s="179"/>
       <c r="B24" s="127"/>
       <c r="C24" s="118"/>
-      <c r="D24" s="162"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="110" t="s">
         <v>137</v>
       </c>
@@ -8305,10 +8305,10 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="186"/>
+      <c r="A25" s="179"/>
       <c r="B25" s="127"/>
       <c r="C25" s="118"/>
-      <c r="D25" s="179" t="s">
+      <c r="D25" s="184" t="s">
         <v>521</v>
       </c>
       <c r="E25" s="104" t="s">
@@ -8323,10 +8323,10 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="25" thickBot="1">
-      <c r="A26" s="186"/>
+      <c r="A26" s="179"/>
       <c r="B26" s="127"/>
       <c r="C26" s="118"/>
-      <c r="D26" s="160"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="110" t="s">
         <v>138</v>
       </c>
@@ -8339,11 +8339,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="25" thickBot="1">
-      <c r="A27" s="186"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="127"/>
       <c r="C27" s="118"/>
-      <c r="D27" s="160"/>
-      <c r="E27" s="147" t="s">
+      <c r="D27" s="147"/>
+      <c r="E27" s="149" t="s">
         <v>139</v>
       </c>
       <c r="F27" s="104" t="s">
@@ -8357,11 +8357,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="186"/>
+      <c r="A28" s="179"/>
       <c r="B28" s="127"/>
       <c r="C28" s="118"/>
-      <c r="D28" s="160"/>
-      <c r="E28" s="148"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="150"/>
       <c r="F28" s="104" t="s">
         <v>428</v>
       </c>
@@ -8373,11 +8373,11 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="25" thickBot="1">
-      <c r="A29" s="186"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="127"/>
       <c r="C29" s="118"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="158"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="151"/>
       <c r="F29" s="104" t="s">
         <v>430</v>
       </c>
@@ -8389,10 +8389,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="25" thickBot="1">
-      <c r="A30" s="186"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="127"/>
       <c r="C30" s="118"/>
-      <c r="D30" s="159" t="s">
+      <c r="D30" s="146" t="s">
         <v>528</v>
       </c>
       <c r="E30" s="104" t="s">
@@ -8407,10 +8407,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="25" thickBot="1">
-      <c r="A31" s="186"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="127"/>
       <c r="C31" s="118"/>
-      <c r="D31" s="160"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="110" t="s">
         <v>397</v>
       </c>
@@ -8423,10 +8423,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="25" thickBot="1">
-      <c r="A32" s="186"/>
+      <c r="A32" s="179"/>
       <c r="B32" s="127"/>
       <c r="C32" s="118"/>
-      <c r="D32" s="160"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="104" t="s">
         <v>533</v>
       </c>
@@ -8439,10 +8439,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="25" thickBot="1">
-      <c r="A33" s="186"/>
+      <c r="A33" s="179"/>
       <c r="B33" s="127"/>
       <c r="C33" s="118"/>
-      <c r="D33" s="160"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="110" t="s">
         <v>398</v>
       </c>
@@ -8455,10 +8455,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="25" thickBot="1">
-      <c r="A34" s="186"/>
+      <c r="A34" s="179"/>
       <c r="B34" s="127"/>
       <c r="C34" s="118"/>
-      <c r="D34" s="160"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="104" t="s">
         <v>536</v>
       </c>
@@ -8471,10 +8471,10 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="25" thickBot="1">
-      <c r="A35" s="186"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="127"/>
       <c r="C35" s="118"/>
-      <c r="D35" s="160"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="110" t="s">
         <v>399</v>
       </c>
@@ -8487,10 +8487,10 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="25" thickBot="1">
-      <c r="A36" s="186"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="127"/>
       <c r="C36" s="118"/>
-      <c r="D36" s="160"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="104" t="s">
         <v>539</v>
       </c>
@@ -8503,10 +8503,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="25" thickBot="1">
-      <c r="A37" s="186"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="127"/>
       <c r="C37" s="118"/>
-      <c r="D37" s="161"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="110" t="s">
         <v>400</v>
       </c>
@@ -8519,10 +8519,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A38" s="186"/>
+      <c r="A38" s="179"/>
       <c r="B38" s="127"/>
       <c r="C38" s="118"/>
-      <c r="D38" s="159" t="s">
+      <c r="D38" s="146" t="s">
         <v>542</v>
       </c>
       <c r="E38" s="104" t="s">
@@ -8537,10 +8537,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="25" thickBot="1">
-      <c r="A39" s="186"/>
+      <c r="A39" s="179"/>
       <c r="B39" s="127"/>
       <c r="C39" s="118"/>
-      <c r="D39" s="160"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="110" t="s">
         <v>138</v>
       </c>
@@ -8553,11 +8553,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" thickBot="1">
-      <c r="A40" s="186"/>
+      <c r="A40" s="179"/>
       <c r="B40" s="127"/>
       <c r="C40" s="118"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="180" t="s">
+      <c r="D40" s="147"/>
+      <c r="E40" s="185" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="104" t="s">
@@ -8571,11 +8571,11 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="37" thickBot="1">
-      <c r="A41" s="186"/>
+      <c r="A41" s="179"/>
       <c r="B41" s="127"/>
       <c r="C41" s="118"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="181"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="186"/>
       <c r="F41" s="104" t="s">
         <v>543</v>
       </c>
@@ -8587,11 +8587,11 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" thickBot="1">
-      <c r="A42" s="186"/>
+      <c r="A42" s="179"/>
       <c r="B42" s="127"/>
       <c r="C42" s="118"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="182"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="187"/>
       <c r="F42" s="104" t="s">
         <v>545</v>
       </c>
@@ -8603,10 +8603,10 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="37" thickBot="1">
-      <c r="A43" s="186"/>
+      <c r="A43" s="179"/>
       <c r="B43" s="127"/>
       <c r="C43" s="118"/>
-      <c r="D43" s="159" t="s">
+      <c r="D43" s="146" t="s">
         <v>546</v>
       </c>
       <c r="E43" s="104" t="s">
@@ -8621,10 +8621,10 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="37" thickBot="1">
-      <c r="A44" s="186"/>
+      <c r="A44" s="179"/>
       <c r="B44" s="127"/>
       <c r="C44" s="118"/>
-      <c r="D44" s="160"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="104" t="s">
         <v>549</v>
       </c>
@@ -8637,10 +8637,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="25" thickBot="1">
-      <c r="A45" s="186"/>
+      <c r="A45" s="179"/>
       <c r="B45" s="127"/>
       <c r="C45" s="118"/>
-      <c r="D45" s="160"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="135" t="s">
         <v>551</v>
       </c>
@@ -8655,11 +8655,11 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="25" thickBot="1">
-      <c r="A46" s="186"/>
+      <c r="A46" s="179"/>
       <c r="B46" s="127"/>
       <c r="C46" s="118"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="146"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="157"/>
       <c r="F46" s="104" t="s">
         <v>428</v>
       </c>
@@ -8671,11 +8671,11 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="25" thickBot="1">
-      <c r="A47" s="186"/>
+      <c r="A47" s="179"/>
       <c r="B47" s="127"/>
       <c r="C47" s="118"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="146"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="157"/>
       <c r="F47" s="104" t="s">
         <v>430</v>
       </c>
@@ -8687,10 +8687,10 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="16" thickBot="1">
-      <c r="A48" s="186"/>
+      <c r="A48" s="179"/>
       <c r="B48" s="127"/>
       <c r="C48" s="118"/>
-      <c r="D48" s="160"/>
+      <c r="D48" s="147"/>
       <c r="E48" s="136"/>
       <c r="F48" s="104" t="s">
         <v>472</v>
@@ -8703,10 +8703,10 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="25" thickBot="1">
-      <c r="A49" s="186"/>
+      <c r="A49" s="179"/>
       <c r="B49" s="127"/>
       <c r="C49" s="118"/>
-      <c r="D49" s="160"/>
+      <c r="D49" s="147"/>
       <c r="E49" s="135" t="s">
         <v>556</v>
       </c>
@@ -8721,11 +8721,11 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="25" thickBot="1">
-      <c r="A50" s="186"/>
+      <c r="A50" s="179"/>
       <c r="B50" s="127"/>
       <c r="C50" s="118"/>
-      <c r="D50" s="160"/>
-      <c r="E50" s="146"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="104" t="s">
         <v>428</v>
       </c>
@@ -8737,11 +8737,11 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="25" thickBot="1">
-      <c r="A51" s="186"/>
+      <c r="A51" s="179"/>
       <c r="B51" s="127"/>
       <c r="C51" s="118"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="146"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="157"/>
       <c r="F51" s="104" t="s">
         <v>430</v>
       </c>
@@ -8753,10 +8753,10 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" thickBot="1">
-      <c r="A52" s="186"/>
+      <c r="A52" s="179"/>
       <c r="B52" s="127"/>
       <c r="C52" s="118"/>
-      <c r="D52" s="160"/>
+      <c r="D52" s="147"/>
       <c r="E52" s="136"/>
       <c r="F52" s="104" t="s">
         <v>472</v>
@@ -8769,10 +8769,10 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" thickBot="1">
-      <c r="A53" s="186"/>
+      <c r="A53" s="179"/>
       <c r="B53" s="127"/>
       <c r="C53" s="118"/>
-      <c r="D53" s="160"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="104" t="s">
         <v>561</v>
       </c>
@@ -8785,10 +8785,10 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="25" thickBot="1">
-      <c r="A54" s="186"/>
+      <c r="A54" s="179"/>
       <c r="B54" s="127"/>
       <c r="C54" s="118"/>
-      <c r="D54" s="160"/>
+      <c r="D54" s="147"/>
       <c r="E54" s="104" t="s">
         <v>563</v>
       </c>
@@ -8801,10 +8801,10 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="25" thickBot="1">
-      <c r="A55" s="186"/>
+      <c r="A55" s="179"/>
       <c r="B55" s="127"/>
       <c r="C55" s="118"/>
-      <c r="D55" s="160"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="104" t="s">
         <v>565</v>
       </c>
@@ -8817,10 +8817,10 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" thickBot="1">
-      <c r="A56" s="186"/>
+      <c r="A56" s="179"/>
       <c r="B56" s="127"/>
       <c r="C56" s="118"/>
-      <c r="D56" s="160"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="104" t="s">
         <v>567</v>
       </c>
@@ -8833,10 +8833,10 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="25" thickBot="1">
-      <c r="A57" s="186"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="127"/>
       <c r="C57" s="118"/>
-      <c r="D57" s="161"/>
+      <c r="D57" s="148"/>
       <c r="E57" s="104" t="s">
         <v>568</v>
       </c>
@@ -8849,10 +8849,10 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="37" thickBot="1">
-      <c r="A58" s="186"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="127"/>
       <c r="C58" s="118"/>
-      <c r="D58" s="159" t="s">
+      <c r="D58" s="146" t="s">
         <v>401</v>
       </c>
       <c r="E58" s="104" t="s">
@@ -8867,10 +8867,10 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="37" thickBot="1">
-      <c r="A59" s="186"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="127"/>
       <c r="C59" s="118"/>
-      <c r="D59" s="160"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="123" t="s">
         <v>549</v>
       </c>
@@ -8883,10 +8883,10 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" thickBot="1">
-      <c r="A60" s="186"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="127"/>
       <c r="C60" s="118"/>
-      <c r="D60" s="160"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="115" t="s">
         <v>572</v>
       </c>
@@ -8901,10 +8901,10 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="37" thickBot="1">
-      <c r="A61" s="186"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="127"/>
       <c r="C61" s="118"/>
-      <c r="D61" s="160"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="116"/>
       <c r="F61" s="104" t="s">
         <v>543</v>
@@ -8917,10 +8917,10 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" thickBot="1">
-      <c r="A62" s="186"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="127"/>
       <c r="C62" s="118"/>
-      <c r="D62" s="160"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="111"/>
       <c r="F62" s="104" t="s">
         <v>545</v>
@@ -8933,10 +8933,10 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" thickBot="1">
-      <c r="A63" s="186"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="127"/>
       <c r="C63" s="118"/>
-      <c r="D63" s="160"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="116" t="s">
         <v>576</v>
       </c>
@@ -8951,10 +8951,10 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="37" thickBot="1">
-      <c r="A64" s="186"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="127"/>
       <c r="C64" s="118"/>
-      <c r="D64" s="160"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="116"/>
       <c r="F64" s="104" t="s">
         <v>543</v>
@@ -8967,10 +8967,10 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" thickBot="1">
-      <c r="A65" s="186"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="127"/>
       <c r="C65" s="118"/>
-      <c r="D65" s="160"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="111"/>
       <c r="F65" s="104" t="s">
         <v>545</v>
@@ -8983,10 +8983,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" thickBot="1">
-      <c r="A66" s="186"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="127"/>
       <c r="C66" s="118"/>
-      <c r="D66" s="160"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="104" t="s">
         <v>579</v>
       </c>
@@ -8999,10 +8999,10 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="25" thickBot="1">
-      <c r="A67" s="186"/>
+      <c r="A67" s="179"/>
       <c r="B67" s="127"/>
       <c r="C67" s="118"/>
-      <c r="D67" s="161"/>
+      <c r="D67" s="148"/>
       <c r="E67" s="104" t="s">
         <v>581</v>
       </c>
@@ -9015,10 +9015,10 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="25" thickBot="1">
-      <c r="A68" s="186"/>
+      <c r="A68" s="179"/>
       <c r="B68" s="127"/>
       <c r="C68" s="118"/>
-      <c r="D68" s="159" t="s">
+      <c r="D68" s="146" t="s">
         <v>583</v>
       </c>
       <c r="E68" s="135" t="s">
@@ -9035,10 +9035,10 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="37" thickBot="1">
-      <c r="A69" s="186"/>
+      <c r="A69" s="179"/>
       <c r="B69" s="127"/>
       <c r="C69" s="118"/>
-      <c r="D69" s="160"/>
+      <c r="D69" s="147"/>
       <c r="E69" s="136"/>
       <c r="F69" s="104" t="s">
         <v>586</v>
@@ -9051,11 +9051,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="37" thickBot="1">
-      <c r="A70" s="186"/>
+      <c r="A70" s="179"/>
       <c r="B70" s="127"/>
       <c r="C70" s="118"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="147" t="s">
+      <c r="D70" s="147"/>
+      <c r="E70" s="149" t="s">
         <v>141</v>
       </c>
       <c r="F70" s="104" t="s">
@@ -9069,11 +9069,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="37" thickBot="1">
-      <c r="A71" s="186"/>
+      <c r="A71" s="179"/>
       <c r="B71" s="127"/>
       <c r="C71" s="118"/>
-      <c r="D71" s="160"/>
-      <c r="E71" s="148"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="150"/>
       <c r="F71" s="104" t="s">
         <v>428</v>
       </c>
@@ -9085,11 +9085,11 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="25" thickBot="1">
-      <c r="A72" s="186"/>
+      <c r="A72" s="179"/>
       <c r="B72" s="127"/>
       <c r="C72" s="118"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="148"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="150"/>
       <c r="F72" s="104" t="s">
         <v>430</v>
       </c>
@@ -9101,11 +9101,11 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" thickBot="1">
-      <c r="A73" s="186"/>
+      <c r="A73" s="179"/>
       <c r="B73" s="127"/>
       <c r="C73" s="118"/>
-      <c r="D73" s="160"/>
-      <c r="E73" s="158"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="151"/>
       <c r="F73" s="104" t="s">
         <v>472</v>
       </c>
@@ -9117,11 +9117,11 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="37" thickBot="1">
-      <c r="A74" s="186"/>
+      <c r="A74" s="179"/>
       <c r="B74" s="127"/>
       <c r="C74" s="118"/>
-      <c r="D74" s="160"/>
-      <c r="E74" s="147" t="s">
+      <c r="D74" s="147"/>
+      <c r="E74" s="149" t="s">
         <v>142</v>
       </c>
       <c r="F74" s="104" t="s">
@@ -9135,11 +9135,11 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="37" thickBot="1">
-      <c r="A75" s="186"/>
+      <c r="A75" s="179"/>
       <c r="B75" s="127"/>
       <c r="C75" s="118"/>
-      <c r="D75" s="160"/>
-      <c r="E75" s="148"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="150"/>
       <c r="F75" s="104" t="s">
         <v>428</v>
       </c>
@@ -9151,11 +9151,11 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="25" thickBot="1">
-      <c r="A76" s="186"/>
+      <c r="A76" s="179"/>
       <c r="B76" s="127"/>
       <c r="C76" s="118"/>
-      <c r="D76" s="160"/>
-      <c r="E76" s="148"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="150"/>
       <c r="F76" s="104" t="s">
         <v>430</v>
       </c>
@@ -9167,11 +9167,11 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" thickBot="1">
-      <c r="A77" s="186"/>
+      <c r="A77" s="179"/>
       <c r="B77" s="127"/>
       <c r="C77" s="118"/>
-      <c r="D77" s="160"/>
-      <c r="E77" s="158"/>
+      <c r="D77" s="147"/>
+      <c r="E77" s="151"/>
       <c r="F77" s="104" t="s">
         <v>472</v>
       </c>
@@ -9183,10 +9183,10 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37" thickBot="1">
-      <c r="A78" s="186"/>
+      <c r="A78" s="179"/>
       <c r="B78" s="127"/>
       <c r="C78" s="118"/>
-      <c r="D78" s="160"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="104" t="s">
         <v>593</v>
       </c>
@@ -9199,10 +9199,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="37" thickBot="1">
-      <c r="A79" s="186"/>
+      <c r="A79" s="179"/>
       <c r="B79" s="127"/>
       <c r="C79" s="118"/>
-      <c r="D79" s="160"/>
+      <c r="D79" s="147"/>
       <c r="E79" s="104" t="s">
         <v>563</v>
       </c>
@@ -9215,10 +9215,10 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="37" thickBot="1">
-      <c r="A80" s="186"/>
+      <c r="A80" s="179"/>
       <c r="B80" s="127"/>
       <c r="C80" s="118"/>
-      <c r="D80" s="160"/>
+      <c r="D80" s="147"/>
       <c r="E80" s="104" t="s">
         <v>565</v>
       </c>
@@ -9231,10 +9231,10 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="37" thickBot="1">
-      <c r="A81" s="186"/>
+      <c r="A81" s="179"/>
       <c r="B81" s="127"/>
       <c r="C81" s="118"/>
-      <c r="D81" s="161"/>
+      <c r="D81" s="148"/>
       <c r="E81" s="104" t="s">
         <v>598</v>
       </c>
@@ -9247,7 +9247,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="25" thickBot="1">
-      <c r="A82" s="186"/>
+      <c r="A82" s="179"/>
       <c r="B82" s="123"/>
       <c r="C82" s="128" t="s">
         <v>143</v>
@@ -9263,9 +9263,9 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="61" thickBot="1">
-      <c r="A83" s="186"/>
+      <c r="A83" s="179"/>
       <c r="B83" s="123"/>
-      <c r="C83" s="163" t="s">
+      <c r="C83" s="154" t="s">
         <v>467</v>
       </c>
       <c r="D83" s="120" t="s">
@@ -9281,10 +9281,10 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" thickBot="1">
-      <c r="A84" s="186"/>
+      <c r="A84" s="179"/>
       <c r="B84" s="123"/>
-      <c r="C84" s="153"/>
-      <c r="D84" s="159" t="s">
+      <c r="C84" s="155"/>
+      <c r="D84" s="146" t="s">
         <v>603</v>
       </c>
       <c r="E84" s="104" t="s">
@@ -9299,10 +9299,10 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="37" thickBot="1">
-      <c r="A85" s="186"/>
+      <c r="A85" s="179"/>
       <c r="B85" s="123"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="160"/>
+      <c r="C85" s="155"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="104" t="s">
         <v>504</v>
       </c>
@@ -9315,10 +9315,10 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A86" s="186"/>
+      <c r="A86" s="179"/>
       <c r="B86" s="123"/>
-      <c r="C86" s="178"/>
-      <c r="D86" s="161"/>
+      <c r="C86" s="183"/>
+      <c r="D86" s="148"/>
       <c r="E86" s="104" t="s">
         <v>545</v>
       </c>
@@ -9331,7 +9331,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="25" thickBot="1">
-      <c r="A87" s="186"/>
+      <c r="A87" s="179"/>
       <c r="B87" s="123"/>
       <c r="C87" s="103" t="s">
         <v>482</v>
@@ -9347,7 +9347,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A88" s="186"/>
+      <c r="A88" s="179"/>
       <c r="B88" s="123"/>
       <c r="C88" s="104" t="s">
         <v>545</v>
@@ -9363,41 +9363,57 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="186"/>
-      <c r="B89" s="146"/>
+      <c r="A89" s="179"/>
+      <c r="B89" s="157"/>
       <c r="C89" s="135" t="s">
         <v>608</v>
       </c>
-      <c r="D89" s="147"/>
+      <c r="D89" s="149"/>
       <c r="E89" s="135"/>
-      <c r="F89" s="147"/>
+      <c r="F89" s="149"/>
       <c r="G89" s="45" t="s">
         <v>609</v>
       </c>
-      <c r="H89" s="155" t="s">
+      <c r="H89" s="158" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" thickBot="1">
-      <c r="A90" s="187"/>
+      <c r="A90" s="180"/>
       <c r="B90" s="136"/>
       <c r="C90" s="136"/>
-      <c r="D90" s="158"/>
+      <c r="D90" s="151"/>
       <c r="E90" s="136"/>
-      <c r="F90" s="158"/>
+      <c r="F90" s="151"/>
       <c r="G90" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="H90" s="157"/>
+      <c r="H90" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D17:D24"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A90"/>
     <mergeCell ref="D30:D37"/>
     <mergeCell ref="D38:D42"/>
@@ -9412,28 +9428,12 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D17:D24"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9475,7 +9475,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" thickBot="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="154" t="s">
         <v>474</v>
       </c>
       <c r="B2" s="105" t="s">
@@ -9490,7 +9490,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" thickBot="1">
-      <c r="A3" s="153"/>
+      <c r="A3" s="155"/>
       <c r="B3" s="120" t="s">
         <v>417</v>
       </c>
@@ -9503,8 +9503,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="25" thickBot="1">
-      <c r="A4" s="153"/>
-      <c r="B4" s="159" t="s">
+      <c r="A4" s="155"/>
+      <c r="B4" s="146" t="s">
         <v>448</v>
       </c>
       <c r="C4" s="119" t="s">
@@ -9518,8 +9518,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="25" thickBot="1">
-      <c r="A5" s="153"/>
-      <c r="B5" s="160"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="106" t="s">
         <v>450</v>
       </c>
@@ -9531,8 +9531,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="25" thickBot="1">
-      <c r="A6" s="153"/>
-      <c r="B6" s="161"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="106" t="s">
         <v>451</v>
       </c>
@@ -9544,7 +9544,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="37" thickBot="1">
-      <c r="A7" s="153"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="124" t="s">
         <v>212</v>
       </c>
@@ -9557,7 +9557,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="49" thickBot="1">
-      <c r="A8" s="153"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="106" t="s">
         <v>614</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" thickBot="1">
-      <c r="A9" s="153"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="106" t="s">
         <v>616</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="67.5" customHeight="1" thickBot="1">
-      <c r="A10" s="153"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="106" t="s">
         <v>618</v>
       </c>
@@ -9596,7 +9596,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="37" thickBot="1">
-      <c r="A11" s="153"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="124" t="s">
         <v>211</v>
       </c>
@@ -9609,7 +9609,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="37" thickBot="1">
-      <c r="A12" s="153"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="124" t="s">
         <v>210</v>
       </c>
@@ -9622,7 +9622,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="97" thickBot="1">
-      <c r="A13" s="154"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="117" t="s">
         <v>321</v>
       </c>
@@ -9659,8 +9659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" topLeftCell="A101" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14"/>
@@ -9676,10 +9676,10 @@
     <row r="1" spans="1:3" ht="15" thickBot="1"/>
     <row r="2" spans="1:3" ht="16" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="191" t="s">
         <v>638</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="192"/>
     </row>
     <row r="3" spans="1:3" ht="16" thickBot="1">
       <c r="A3"/>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="10" spans="1:3" ht="16" thickBot="1">
       <c r="A10"/>
-      <c r="B10" s="191" t="s">
+      <c r="B10" s="189" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="192"/>
+      <c r="C10" s="190"/>
     </row>
     <row r="11" spans="1:3" ht="16" thickBot="1">
       <c r="A11"/>
@@ -9843,10 +9843,10 @@
     </row>
     <row r="23" spans="1:3" ht="16" thickBot="1">
       <c r="A23"/>
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="192"/>
+      <c r="C23" s="190"/>
     </row>
     <row r="24" spans="1:3" ht="16" thickBot="1">
       <c r="A24"/>
@@ -9887,10 +9887,10 @@
     </row>
     <row r="29" spans="1:3" ht="16" thickBot="1">
       <c r="A29"/>
-      <c r="B29" s="191" t="s">
+      <c r="B29" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="192"/>
+      <c r="C29" s="190"/>
     </row>
     <row r="30" spans="1:3" ht="16" thickBot="1">
       <c r="A30"/>
@@ -9931,10 +9931,10 @@
     </row>
     <row r="35" spans="1:3" ht="16" thickBot="1">
       <c r="A35"/>
-      <c r="B35" s="191" t="s">
+      <c r="B35" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="192"/>
+      <c r="C35" s="190"/>
     </row>
     <row r="36" spans="1:3" ht="16" thickBot="1">
       <c r="A36"/>
@@ -9975,10 +9975,10 @@
     </row>
     <row r="41" spans="1:3" ht="16" thickBot="1">
       <c r="A41"/>
-      <c r="B41" s="191" t="s">
+      <c r="B41" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="192"/>
+      <c r="C41" s="190"/>
     </row>
     <row r="42" spans="1:3" ht="16" thickBot="1">
       <c r="A42"/>
@@ -10019,10 +10019,10 @@
     </row>
     <row r="47" spans="1:3" ht="16" thickBot="1">
       <c r="A47"/>
-      <c r="B47" s="191" t="s">
+      <c r="B47" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="192"/>
+      <c r="C47" s="190"/>
     </row>
     <row r="48" spans="1:3" ht="16" thickBot="1">
       <c r="A48"/>
@@ -10099,10 +10099,10 @@
     </row>
     <row r="57" spans="1:5" ht="16" thickBot="1">
       <c r="A57"/>
-      <c r="B57" s="191" t="s">
+      <c r="B57" s="189" t="s">
         <v>650</v>
       </c>
-      <c r="C57" s="192"/>
+      <c r="C57" s="190"/>
       <c r="D57" s="85"/>
       <c r="E57" s="86"/>
     </row>
@@ -10280,10 +10280,10 @@
     </row>
     <row r="78" spans="1:3" ht="16" thickBot="1">
       <c r="A78"/>
-      <c r="B78" s="191" t="s">
+      <c r="B78" s="189" t="s">
         <v>651</v>
       </c>
-      <c r="C78" s="192"/>
+      <c r="C78" s="190"/>
     </row>
     <row r="79" spans="1:3" ht="16" thickBot="1">
       <c r="A79"/>
@@ -10450,10 +10450,10 @@
     </row>
     <row r="98" spans="1:4" ht="16" thickBot="1">
       <c r="A98"/>
-      <c r="B98" s="191" t="s">
+      <c r="B98" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="C98" s="192"/>
+      <c r="C98" s="190"/>
     </row>
     <row r="99" spans="1:4" ht="16" thickBot="1">
       <c r="A99"/>
@@ -10524,10 +10524,10 @@
     </row>
     <row r="106" spans="1:4" ht="16" thickBot="1">
       <c r="A106"/>
-      <c r="B106" s="191" t="s">
+      <c r="B106" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="C106" s="192"/>
+      <c r="C106" s="190"/>
     </row>
     <row r="107" spans="1:4" ht="16" thickBot="1">
       <c r="A107"/>
@@ -10607,10 +10607,10 @@
     </row>
     <row r="116" spans="1:3" ht="16" thickBot="1">
       <c r="A116"/>
-      <c r="B116" s="191" t="s">
+      <c r="B116" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C116" s="192"/>
+      <c r="C116" s="190"/>
     </row>
     <row r="117" spans="1:3" ht="16" thickBot="1">
       <c r="A117"/>
@@ -10642,10 +10642,10 @@
     </row>
     <row r="121" spans="1:3" ht="16" thickBot="1">
       <c r="A121"/>
-      <c r="B121" s="191" t="s">
+      <c r="B121" s="189" t="s">
         <v>171</v>
       </c>
-      <c r="C121" s="192"/>
+      <c r="C121" s="190"/>
     </row>
     <row r="122" spans="1:3" ht="16" thickBot="1">
       <c r="A122"/>
@@ -10686,10 +10686,10 @@
     </row>
     <row r="127" spans="1:3" ht="16" thickBot="1">
       <c r="A127"/>
-      <c r="B127" s="191" t="s">
+      <c r="B127" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="192"/>
+      <c r="C127" s="190"/>
     </row>
     <row r="128" spans="1:3" ht="16" thickBot="1">
       <c r="A128"/>
@@ -10719,10 +10719,10 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:3" ht="15" thickBot="1">
-      <c r="B132" s="191" t="s">
+      <c r="B132" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="192"/>
+      <c r="C132" s="190"/>
     </row>
     <row r="133" spans="1:3" ht="16" thickBot="1">
       <c r="B133"/>
@@ -10765,10 +10765,10 @@
       <c r="C138"/>
     </row>
     <row r="139" spans="1:3" ht="15" thickBot="1">
-      <c r="B139" s="191" t="s">
+      <c r="B139" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="C139" s="192"/>
+      <c r="C139" s="190"/>
     </row>
     <row r="140" spans="1:3" ht="16" thickBot="1">
       <c r="B140"/>
@@ -10811,10 +10811,10 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:3" ht="15" thickBot="1">
-      <c r="B146" s="191" t="s">
+      <c r="B146" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="C146" s="192"/>
+      <c r="C146" s="190"/>
     </row>
     <row r="147" spans="2:3" ht="16" thickBot="1">
       <c r="B147"/>
@@ -10961,10 +10961,10 @@
       <c r="C165" s="76"/>
     </row>
     <row r="166" spans="2:3" ht="15" thickBot="1">
-      <c r="B166" s="191" t="s">
+      <c r="B166" s="189" t="s">
         <v>161</v>
       </c>
-      <c r="C166" s="192"/>
+      <c r="C166" s="190"/>
     </row>
     <row r="167" spans="2:3" ht="16" thickBot="1">
       <c r="B167"/>
@@ -11071,10 +11071,10 @@
       <c r="C180" s="79"/>
     </row>
     <row r="181" spans="2:3" ht="15" thickBot="1">
-      <c r="B181" s="191" t="s">
+      <c r="B181" s="189" t="s">
         <v>181</v>
       </c>
-      <c r="C181" s="192"/>
+      <c r="C181" s="190"/>
     </row>
     <row r="182" spans="2:3" ht="15" thickBot="1">
       <c r="B182" s="70"/>
@@ -11109,10 +11109,10 @@
       <c r="C186"/>
     </row>
     <row r="187" spans="2:3" ht="15" thickBot="1">
-      <c r="B187" s="191" t="s">
+      <c r="B187" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="C187" s="192"/>
+      <c r="C187" s="190"/>
     </row>
     <row r="188" spans="2:3" ht="16" thickBot="1">
       <c r="B188"/>
@@ -11144,13 +11144,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B181:C181"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B10:C10"/>
@@ -11165,6 +11158,13 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B181:C181"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0.31496062992125984"/>
@@ -11251,62 +11251,62 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="34"/>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="205" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
     </row>
     <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="34"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="206"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="198" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="208" t="s">
+      <c r="C3" s="198" t="s">
         <v>248</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="198" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="208" t="s">
+      <c r="E3" s="198" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="208" t="s">
+      <c r="F3" s="198" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="208" t="s">
+      <c r="G3" s="198" t="s">
         <v>244</v>
       </c>
-      <c r="H3" s="205" t="s">
+      <c r="H3" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="206"/>
-      <c r="J3" s="207"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="197"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" thickBot="1">
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
       <c r="H4" s="33" t="s">
         <v>242</v>
       </c>
@@ -11318,17 +11318,17 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16" thickBot="1">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="198"/>
+      <c r="C5" s="208"/>
+      <c r="D5" s="208"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
     </row>
     <row r="6" spans="1:11" ht="53" thickBot="1">
       <c r="B6" s="32" t="s">
@@ -11349,7 +11349,7 @@
       <c r="G6" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="202" t="s">
+      <c r="H6" s="204" t="s">
         <v>223</v>
       </c>
       <c r="I6" s="203" t="s">
@@ -11379,23 +11379,23 @@
       <c r="G7" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="202"/>
+      <c r="H7" s="204"/>
       <c r="I7" s="203"/>
       <c r="J7" s="203"/>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="207" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="209"/>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="66" thickBot="1">
@@ -11420,10 +11420,10 @@
       <c r="H9" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="202" t="s">
+      <c r="I9" s="204" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="202" t="s">
+      <c r="J9" s="204" t="s">
         <v>229</v>
       </c>
       <c r="K9" s="29"/>
@@ -11448,22 +11448,22 @@
         <v>266</v>
       </c>
       <c r="H10" s="203"/>
-      <c r="I10" s="202"/>
-      <c r="J10" s="202"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="16" thickBot="1">
-      <c r="B11" s="199" t="s">
+      <c r="B11" s="210" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="201"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11" ht="131" thickBot="1">
@@ -11485,7 +11485,7 @@
       <c r="G12" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="204" t="s">
         <v>223</v>
       </c>
       <c r="I12" s="203" t="s">
@@ -11515,7 +11515,7 @@
       <c r="G13" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="202"/>
+      <c r="H13" s="204"/>
       <c r="I13" s="203"/>
       <c r="J13" s="203"/>
       <c r="K13" s="29"/>
@@ -11526,98 +11526,109 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="211" t="s">
+      <c r="B16" s="201" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="211"/>
-      <c r="D16" s="211"/>
-      <c r="E16" s="211"/>
-      <c r="F16" s="211"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="211"/>
-      <c r="I16" s="211"/>
-      <c r="J16" s="211"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="202" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="194" t="s">
         <v>216</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="210" t="s">
+      <c r="B19" s="200" t="s">
         <v>286</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="210"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="210" t="s">
+      <c r="B20" s="200" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="194" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
-      <c r="H21" s="204"/>
-      <c r="I21" s="204"/>
-      <c r="J21" s="204"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="194" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="204"/>
-      <c r="H22" s="204"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J9:J10"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B22:J22"/>
     <mergeCell ref="H3:J3"/>
@@ -11634,17 +11645,6 @@
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
